--- a/relatorios_simplificados/separarNeotin_SIMPLIFICADO.xlsx
+++ b/relatorios_simplificados/separarNeotin_SIMPLIFICADO.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:AD30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,564 +437,924 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Paciente RJ - Japeri</t>
+          <t>Paciente RJ - Belford Roxo</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>RJ - Japeri</t>
+          <t>RJ - Belford Roxo</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Quantidade RJ - Japeri</t>
+          <t>Quantidade RJ - Belford Roxo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Paciente RJ - Duque de Caxias</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>RJ - Duque de Caxias</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Quantidade RJ - Duque de Caxias</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Paciente RJ - Magé</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>RJ - Magé</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Quantidade RJ - Magé</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Paciente RJ - Mesquita</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>RJ - Mesquita</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Quantidade RJ - Mesquita</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Paciente RJ - Nilópolis</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>RJ - Nilópolis</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Quantidade RJ - Nilópolis</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Paciente RJ - Nova Iguaçu</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Quantidade RJ - Nova Iguaçu</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Paciente RJ - Paracambi</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>RJ - Paracambi</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Quantidade RJ - Paracambi</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Paciente RJ - Queimados</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>RJ - Queimados</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Quantidade RJ - Queimados</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Paciente RJ - São João de Meriti</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>RJ - São João de Meriti</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Quantidade RJ - São João de Meriti</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Paciente RJ - Seropédica</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>RJ - Seropédica</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Quantidade RJ - Seropédica</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ADRIELLY VICTORIA DE ASSIS DOS SANTOS</t>
+          <t>MARIA HELOISA DE LIMA SOUZA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>SARAH MATTOSINHOS HARTMAN</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>NOAH DE SOUZA ALMEIDA</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>ANA CAROLINA DA ROCHA MIRANDA</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>ITALO GABRIEL PEREIRA DA SILVA</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>DAVI LUCAS MARQUES LIMA</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>BERNARDO AMARO TAVARES</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>JOAO ISAC PITZR FERREIRA</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>THEO HENRIQUE GAMA BRANDI</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>MICHAEL JANUARIO MACHADO DE FARIAS</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="X2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>ENZO EMANUEL CEZAR SEIXAS DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="AA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>ALLANA VALENTINA DE OLIVEIRA DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
         <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>THEO DOS SANTOS DA COSTA</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>CALEB NASCIMENTO FERREIRA</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="O2" t="n">
+      <c r="AD2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>THALLIS LUIZ VELOZO GUEDES</t>
+          <t>MARIA VITORIA SANTOS DA SILVA</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>YASMIN GABRIELLY VENTURA OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>DAVI RIBEIRO MONTUAN</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>DERICK CESAR SANTOS RIBEIRO</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>RYAN DA SILVA ESCOBAR</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>LEVI MATUE DA SILVA SANTOS</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>MARIA JULIA OLIVEIRA FIRMINO</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>GUILHERME DA CRUZ DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>LUCAS EDURADO DA COSTA COELHO</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
         <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>ENZO GABRIEL VIEIRA LAMEIRA</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
+      <c r="X3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>ENZO EMANUEL CEZAR SEIXAS DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="AA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>ALLANA VALENTINA DE OLIVEIRA DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="AD3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>GAEL RODRIGO MEDELA BARBOSA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>JULIA EGGER MOREIRA DE CASTRO</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>MIGUEL MIRANDA DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>DAVI LUCAS NASCIMENTO DA SILVA</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>GAEL SANT ANNA CAMPOS DE JESUS</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ROMULO GUSTAVO DANTAS FERNANDES</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>MARIA CLARA MARQUES DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>MIRELY VITORIA GOMES MONSORES</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
         <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>STELLA ALMEIDA DE SOUZA</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+      <c r="X4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>CAIQUE MOTA DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>PEDRO HENRIQUE DE OLIVEIRA CAETANO</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="AA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>PEDRO PAULO MIRANDA MANHAES</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>PALLOMA TOSTA DOS SANTOS SILVA</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ASAFE COSTA RODRIGUES DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>SUSAN SOPHIA OLIVEIRA DA SILVA</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>GAEL SANT ANNA CAMPOS DE JESUS</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>ANA JULIA COSTA DE SOUZA</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>THEO LUCAS DOS SANTOS NEPOMUCENO</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
         <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>ARTHUR MIGUEL MARQUES ARCANJO</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="X5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>GAEL SANTOS VARGAS</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ADRIELLY VICTORIA DE ASSIS DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>DAVI LUCAS MARQUES LIMA</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="AA5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>RUAN MIGUEL DA SILVA PINHEIRO</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>JONAS MIGUEL BANNI DA SILVA JUNIOR</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ENZO GABRIEL DOS SANTOS SILVA</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>LEVI MATUE DA SILVA SANTOS</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>LAIS PEREIRA ALMEIDA</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>MIRELLA TELES DA SILVA</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>BRYAN LUIS SILVA VITOR</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
         <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>GAEL DO NASCIMENTO LEGENTIL</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="X6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>ARTHUR SENA LAPROVITA LEMOS</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>CALEB NASCIMENTO FERREIRA</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="AA6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>GIOVANNA VITORIA SILVA LUCIANO</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>NOAH BANNI LUGAO</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ENZO HENRIQUE RODRIGUES DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>BERNARDO AMARO TAVARES</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>MYGUEL BENICIO DA SILVA</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="X7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>ARTHUR SENA LAPROVITA LEMOS</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="AA7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>MARIA EDUARDA CAMILO GONCALVES MOTTA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>ELOY DOUGLAS COSTA DA SILVA</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>LETICIA CARNEIRO DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>MARIA CLARA MARQUES DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>MIGUEL ZYAN DOS SANTOS SILVA</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="X8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>CAIQUE MOTA DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
         <is>
           <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ADRIELLY VICTORIA DE ASSIS DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>RYAN DA SILVA ESCOBAR</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>LAVINIA ARAUJO DE ALMEIDA</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>IURY DE SOUZA QUEIROZ</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>ARTHUR MIGUEL MARQUES ARCANJO</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>THALLIS LUIZ VELOZO GUEDES</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>DAVI LUCAS MARQUES LIMA</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>MICHAEL JANUARIO MACHADO DE FARIAS</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>RAVI BATISTA DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>DAVI LUCAS NASCIMENTO DA SILVA</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>ROMULO GUSTAVO DANTAS FERNANDES</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>STELLA ALMEIDA DE SOUZA</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>LAVINIA ARAUJO DE ALMEIDA</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>ISRAEL PHELIPE ARAUJO DA SILVA NUNES</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>GUSTTAVO MUNIZ DE SOUZA</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NATHAN BAPTISTA DA SILVA ALVES</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>LAIS PEREIRA ALMEIDA</t>
+          <t>JOHN KEVEN PITZER DA SILVA</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1002,46 +1362,81 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>ISRAEL PHELIPE ARAUJO DA SILVA NUNES</t>
+          <t>LEONARDO DE BARROS BRAGA</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>MIRELLA TELES DA SILVA</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA- PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>THEO LUCAS DOS SANTOS NEPOMUCENO</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
           <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>PEDRO HENRIQUE DA S DE PAULA</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
+      <c r="X9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ALICE VIEIRA SOUZA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>PEDRO HENRIQUE DE OLIVEIRA CAETANO</t>
+          <t>NICOLLAS DE SOUZA NOBREGA</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1049,46 +1444,81 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>ISRAEL PHELIPE ARAUJO DA SILVA NUNES</t>
+          <t>LORENZO LUIZ CUNHA LOPES</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>JOAO PEDRO DE AZEVEDO DE SOUZA</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>ANA JULIA COSTA DE SOUZA</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>MIGUEL ZYAN DOS SANTOS SILVA</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="X10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>HEYTOR DE ARAUJO DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>MICHAEL JANUARIO MACHADO DE FARIAS</t>
+          <t>MARCOS ANTONIO DA CONCEICAO ALVES</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1096,46 +1526,81 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>RAVI BATISTA DOS SANTOS</t>
+          <t>ENZO HENRIQUE RODRIGUES DOS SANTOS</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>MAICON BRYAN TORRES DE ANDRADE RABELO</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>GUILHERME DA CRUZ DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>MIGUEL ZYAN DOS SANTOS SILVA</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="X11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>MARIANA VIEIRA SOUZA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>MARIA JULIA OLIVEIRA FIRMINO</t>
+          <t>ABNER DA COSTA ABDALLA JACOB</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1143,155 +1608,285 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>RAVI BATISTA DOS SANTOS</t>
+          <t>ENZO HENRIQUE RODRIGUES DOS SANTOS</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>MICHEL FELICIANO CALIXTE</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>MIGUEL ZYAN DOS SANTOS SILVA</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="X12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>MIGUEL DA SILVA PRATA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>GABRIEL GRIMALDO DE SOUZA E OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>THEO DOS SANTOS DA COSTA</t>
+          <t>ANA CAROLINA DA ROCHA MIRANDA</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>MICHEL FELICIANO CALIXTE</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>MIRELY VITORIA GOMES MONSORES</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="X13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SARAH MATTOSINHOS HARTMAN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA- PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>KAUA SILVA RANGEL</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>ISRAEL PHELIPE ARAUJO DA SILVA NUNES</t>
+          <t>LORENZO LUIZ CUNHA LOPES</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>PEDRO HENRIQUE DA S DE PAULA</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>MYGUEL BENICIO DA SILVA</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
         <is>
           <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
+      <c r="X14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>GAEL RODRIGO MEDELA BARBOSA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>JOSE BENICIO TOLEDO</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>ISRAEL PHELIPE ARAUJO DA SILVA NUNES</t>
+          <t>MIGUEL MIRANDA DOS SANTOS</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>GUSTTAVO MUNIZ DE SOUZA</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>YASMIN GABRIELLY VENTURA OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>PEROLA HELENA LOPES RICARDO</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>RAVI BATISTA DOS SANTOS</t>
+          <t>DERICK CESAR SANTOS RIBEIRO</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1302,112 +1897,187 @@
       <c r="L16" t="n">
         <v>1</v>
       </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>JOAO PEDRO DE AZEVEDO DE SOUZA</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>MIGUEL DA SILVA PRATA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>GUILHERME DE ALMEIDA</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>IURY DE SOUZA QUEIROZ</t>
+          <t>ASAFE COSTA RODRIGUES DE OLIVEIRA</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>JOAO PEDRO DE AZEVEDO DE SOUZA</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>PEDRO PAULO MIRANDA MANHAES</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>JULIA EGGER MOREIRA DE CASTRO</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>GAEL DO NASCIMENTO LEGENTIL</t>
+          <t>LEONARDO DE BARROS BRAGA</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>CORRECAO DE HIPOSPADIA (1º TEMPO) - PEDIATRICO</t>
+          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
         </is>
       </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>MAICON BRYAN TORRES DE ANDRADE RABELO</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="O18" t="n">
-        <v>1</v>
-      </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>HEYTOR DE ARAUJO DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>DAVI RIBEIRO MONTUAN</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>SUSAN SOPHIA OLIVEIRA DA SILVA</t>
+          <t>LETICIA CARNEIRO DE OLIVEIRA</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1416,60 +2086,125 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>SUSAN SOPHIA OLIVEIRA DA SILVA</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>MARIA EDUARDA CAMILO GONCALVES MOTTA</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>NOAH DE SOUZA ALMEIDA</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>ENZO GABRIEL VIEIRA LAMEIRA</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>RUAN MIGUEL DA SILVA PINHEIRO</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>GABRIEL GRIMALDO DE SOUZA E OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
         <is>
           <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
@@ -1478,25 +2213,40 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>KEVIN OLIVEIRA BRITO DE JESUS</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>ELOY DOUGLAS COSTA DA SILVA</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
@@ -1505,25 +2255,40 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>MIGUEL DE MATTOS SALES</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>JOHN KEVEN PITZER DA SILVA</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
@@ -1532,25 +2297,40 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>ABNNER DOS SANTOS NASCIMENTO</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>NICOLLAS DE SOUZA NOBREGA</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
@@ -1559,25 +2339,40 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>BERNARDO DAVI SOUSA VENANCIO</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>MARCOS ANTONIO DA CONCEICAO ALVES</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
@@ -1586,25 +2381,40 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>MICAEL ANTONIO RODRIGUES PONTES</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>ELOY DOUGLAS COSTA DA SILVA</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
@@ -1613,25 +2423,40 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>KEVIN OLIVEIRA BRITO DE JESUS</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>PALLOMA TOSTA DOS SANTOS SILVA</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
@@ -1640,25 +2465,40 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>MIGUEL DE MATTOS SALES</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>JONAS MIGUEL BANNI DA SILVA JUNIOR</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
@@ -1667,25 +2507,40 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>ABNNER DOS SANTOS NASCIMENTO</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>NOAH BANNI LUGAO</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
@@ -1694,52 +2549,40 @@
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>MICAEL ANTONIO RODRIGUES PONTES</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>KAUA SILVA RANGEL</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
         <is>
           <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>BERNARDO DAVI SOUSA VENANCIO</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1752,7 +2595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:K108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1820,27 +2663,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RJ - Japeri</t>
+          <t>RJ - Belford Roxo</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>22/12/2025 11:00</t>
+          <t>14/11/2025 13:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ADRIELLY VICTORIA DE ASSIS DOS SANTOS</t>
+          <t>MARIA HELOISA DE LIMA SOUZA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16/01/2012</t>
+          <t>10/12/2020</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -1875,27 +2718,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RJ - Japeri</t>
+          <t>RJ - Belford Roxo</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>22/12/2025 11:00</t>
+          <t>14/11/2025 13:00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>THALLIS LUIZ VELOZO GUEDES</t>
+          <t>MARIA VITORIA SANTOS DA SILVA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>05/05/2015</t>
+          <t>23/07/2014</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -1930,27 +2773,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RJ - Japeri</t>
+          <t>RJ - Duque de Caxias</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>22/12/2025 11:00</t>
+          <t>20/10/2025 15:00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ROMULO GUSTAVO DANTAS FERNANDES</t>
+          <t>SARAH MATTOSINHOS HARTMAN</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>26/10/2018</t>
+          <t>10/02/2022</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -1985,27 +2828,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RJ - Japeri</t>
+          <t>RJ - Duque de Caxias</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>29/12/2025 07:00</t>
+          <t>20/10/2025 15:00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ADRIELLY VICTORIA DE ASSIS DOS SANTOS</t>
+          <t>YASMIN GABRIELLY VENTURA OLIVEIRA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16/01/2012</t>
+          <t>12/02/2015</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -2013,7 +2856,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>R$ 5.239,94</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -2028,39 +2871,39 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>R$ 610,06</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>R$ 5.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RJ - Japeri</t>
+          <t>RJ - Duque de Caxias</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>29/12/2025 07:00</t>
+          <t>20/10/2025 15:00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ADRIELLY VICTORIA DE ASSIS DOS SANTOS</t>
+          <t>GAEL RODRIGO MEDELA BARBOSA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>16/01/2012</t>
+          <t>28/11/2019</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -2068,7 +2911,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2083,39 +2926,39 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RJ - Japeri</t>
+          <t>RJ - Duque de Caxias</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>29/12/2025 07:00</t>
+          <t>20/10/2025 15:00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>THALLIS LUIZ VELOZO GUEDES</t>
+          <t>PEDRO PAULO MIRANDA MANHAES</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>05/05/2015</t>
+          <t>30/04/2022</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -2123,7 +2966,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2138,39 +2981,39 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RJ - Japeri</t>
+          <t>RJ - Duque de Caxias</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>29/12/2025 07:00</t>
+          <t>20/10/2025 15:00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ROMULO GUSTAVO DANTAS FERNANDES</t>
+          <t>RUAN MIGUEL DA SILVA PINHEIRO</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>26/10/2018</t>
+          <t>14/04/2016</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -2178,7 +3021,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -2193,39 +3036,39 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Duque de Caxias</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>22/12/2025 11:00</t>
+          <t>20/10/2025 15:00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DAVI LUCAS MARQUES LIMA</t>
+          <t>GIOVANNA VITORIA SILVA LUCIANO</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>29/11/2015</t>
+          <t>19/02/2019</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -2260,27 +3103,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Duque de Caxias</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>22/12/2025 11:00</t>
+          <t>20/10/2025 15:00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>RYAN DA SILVA ESCOBAR</t>
+          <t>MARIA EDUARDA CAMILO GONCALVES MOTTA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>16/03/2014</t>
+          <t>25/05/2017</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -2315,27 +3158,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Duque de Caxias</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>22/12/2025 11:00</t>
+          <t>20/10/2025 15:00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>STELLA ALMEIDA DE SOUZA</t>
+          <t>NATHAN BAPTISTA DA SILVA ALVES</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10/11/2020</t>
+          <t>12/04/2022</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -2370,27 +3213,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Duque de Caxias</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>29/12/2025 07:00</t>
+          <t>22/10/2025 15:00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DAVI LUCAS MARQUES LIMA</t>
+          <t>ALICE VIEIRA SOUZA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29/11/2015</t>
+          <t>18/03/2019</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -2398,7 +3241,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2413,39 +3256,39 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Duque de Caxias</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>29/12/2025 07:00</t>
+          <t>22/10/2025 15:00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>RYAN DA SILVA ESCOBAR</t>
+          <t>HEYTOR DE ARAUJO DOS SANTOS</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>16/03/2014</t>
+          <t>10/10/2021</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -2453,7 +3296,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2468,39 +3311,39 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Duque de Caxias</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>29/12/2025 07:00</t>
+          <t>22/10/2025 15:00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DAVI LUCAS MARQUES LIMA</t>
+          <t>MARIANA VIEIRA SOUZA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>29/11/2015</t>
+          <t>18/03/2019</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -2508,7 +3351,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -2523,39 +3366,39 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Duque de Caxias</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>29/12/2025 07:00</t>
+          <t>22/10/2025 15:00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>STELLA ALMEIDA DE SOUZA</t>
+          <t>MIGUEL DA SILVA PRATA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>10/11/2020</t>
+          <t>07/12/2016</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -2563,7 +3406,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2578,39 +3421,39 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Duque de Caxias</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>17/12/2025 11:00</t>
+          <t>25/10/2025 10:00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MICHAEL JANUARIO MACHADO DE FARIAS</t>
+          <t>SARAH MATTOSINHOS HARTMAN</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>05/02/2016</t>
+          <t>10/02/2022</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>AMIGDALECTOMIA- PEDIATRICO</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -2618,7 +3461,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 5.640,01</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -2633,39 +3476,39 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.073,00</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 6.713,01</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Duque de Caxias</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>17/12/2025 11:00</t>
+          <t>25/10/2025 10:00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MARIA JULIA OLIVEIRA FIRMINO</t>
+          <t>GAEL RODRIGO MEDELA BARBOSA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>02/09/2023</t>
+          <t>28/11/2019</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -2673,7 +3516,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2688,39 +3531,39 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Duque de Caxias</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>17/12/2025 11:00</t>
+          <t>25/10/2025 10:00</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PEDRO HENRIQUE DE OLIVEIRA CAETANO</t>
+          <t>YASMIN GABRIELLY VENTURA OLIVEIRA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>04/11/2019</t>
+          <t>12/02/2015</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -2728,7 +3571,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.250,90</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -2743,39 +3586,39 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.079,10</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.330,00</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Duque de Caxias</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>17/12/2025 11:00</t>
+          <t>05/11/2025 11:00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>LAIS PEREIRA ALMEIDA</t>
+          <t>MIGUEL DA SILVA PRATA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>25/06/2019</t>
+          <t>07/12/2016</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -2783,7 +3626,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2798,39 +3641,39 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Duque de Caxias</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>17/12/2025 11:00</t>
+          <t>08/11/2025 10:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>LAVINIA ARAUJO DE ALMEIDA</t>
+          <t>PEDRO PAULO MIRANDA MANHAES</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>10/08/2020</t>
+          <t>30/04/2022</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -2838,7 +3681,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2853,39 +3696,39 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Duque de Caxias</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>19/12/2025 07:00</t>
+          <t>10/11/2025 10:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>MICHAEL JANUARIO MACHADO DE FARIAS</t>
+          <t>HEYTOR DE ARAUJO DOS SANTOS</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>05/02/2016</t>
+          <t>10/10/2021</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -2893,7 +3736,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 4.250,90</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2908,39 +3751,39 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 1.079,10</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 5.330,00</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Duque de Caxias</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>19/12/2025 07:00</t>
+          <t>12/11/2025 10:00</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>LAVINIA ARAUJO DE ALMEIDA</t>
+          <t>MARIA EDUARDA CAMILO GONCALVES MOTTA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>10/08/2020</t>
+          <t>25/05/2017</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -2948,7 +3791,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2963,39 +3806,39 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Duque de Caxias</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>19/12/2025 07:00</t>
+          <t>19/11/2025 10:00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>LAIS PEREIRA ALMEIDA</t>
+          <t>RUAN MIGUEL DA SILVA PINHEIRO</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>25/06/2019</t>
+          <t>14/04/2016</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -3003,7 +3846,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -3018,39 +3861,39 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>19/12/2025 07:00</t>
+          <t>22/10/2025 15:00</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PEDRO HENRIQUE DE OLIVEIRA CAETANO</t>
+          <t>NOAH DE SOUZA ALMEIDA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>04/11/2019</t>
+          <t>21/06/2019</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -3058,7 +3901,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -3073,39 +3916,39 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>19/12/2025 07:00</t>
+          <t>22/10/2025 15:00</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MICHAEL JANUARIO MACHADO DE FARIAS</t>
+          <t>DAVI RIBEIRO MONTUAN</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>05/02/2016</t>
+          <t>20/01/2016</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -3113,7 +3956,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>R$ 5.239,94</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -3128,39 +3971,39 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>R$ 610,06</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>R$ 5.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>19/12/2025 07:00</t>
+          <t>22/10/2025 15:00</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MARIA JULIA OLIVEIRA FIRMINO</t>
+          <t>JULIA EGGER MOREIRA DE CASTRO</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>02/09/2023</t>
+          <t>15/09/2013</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -3168,7 +4011,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -3183,39 +4026,39 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>17/12/2025 11:00</t>
+          <t>27/10/2025 15:00</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>THEO DOS SANTOS DA COSTA</t>
+          <t>PALLOMA TOSTA DOS SANTOS SILVA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>29/10/2021</t>
+          <t>31/05/2014</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -3250,27 +4093,27 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>17/12/2025 11:00</t>
+          <t>27/10/2025 15:00</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ENZO GABRIEL VIEIRA LAMEIRA</t>
+          <t>JONAS MIGUEL BANNI DA SILVA JUNIOR</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>14/02/2012</t>
+          <t>22/04/2017</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -3305,27 +4148,27 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>17/12/2025 11:00</t>
+          <t>27/10/2025 15:00</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SUSAN SOPHIA OLIVEIRA DA SILVA</t>
+          <t>NOAH BANNI LUGAO</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>25/01/2022</t>
+          <t>04/10/2021</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -3360,22 +4203,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>17/12/2025 11:00</t>
+          <t>01/11/2025 09:00</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>GAEL DO NASCIMENTO LEGENTIL</t>
+          <t>ELOY DOUGLAS COSTA DA SILVA</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>01/03/2024</t>
+          <t>24/06/2023</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -3415,22 +4258,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>17/12/2025 11:00</t>
+          <t>01/11/2025 09:00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>IURY DE SOUZA QUEIROZ</t>
+          <t>JOHN KEVEN PITZER DA SILVA</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>14/05/2023</t>
+          <t>17/11/2021</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3470,22 +4313,22 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>17/12/2025 11:00</t>
+          <t>01/11/2025 09:00</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>RAVI BATISTA DOS SANTOS</t>
+          <t>NICOLLAS DE SOUZA NOBREGA</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>05/09/2022</t>
+          <t>26/11/2018</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -3525,22 +4368,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>17/12/2025 11:00</t>
+          <t>01/11/2025 09:00</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ISRAEL PHELIPE ARAUJO DA SILVA NUNES</t>
+          <t>MARCOS ANTONIO DA CONCEICAO ALVES</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>11/11/2020</t>
+          <t>24/08/2017</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -3580,27 +4423,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>19/12/2025 07:00</t>
+          <t>01/11/2025 09:00</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ISRAEL PHELIPE ARAUJO DA SILVA NUNES</t>
+          <t>ABNER DA COSTA ABDALLA JACOB</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>11/11/2020</t>
+          <t>19/08/2014</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -3608,7 +4451,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -3623,39 +4466,39 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>19/12/2025 07:00</t>
+          <t>01/11/2025 09:00</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ISRAEL PHELIPE ARAUJO DA SILVA NUNES</t>
+          <t>GABRIEL GRIMALDO DE SOUZA E OLIVEIRA</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>11/11/2020</t>
+          <t>25/10/2016</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -3663,7 +4506,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>R$ 6.772,46</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -3678,39 +4521,39 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>R$ 385,32</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>R$ 7.157,78</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>19/12/2025 07:00</t>
+          <t>03/11/2025 13:30</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>RAVI BATISTA DOS SANTOS</t>
+          <t>KAUA SILVA RANGEL</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>05/09/2022</t>
+          <t>27/01/2020</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -3718,7 +4561,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>R$ 5.239,94</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -3733,39 +4576,39 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>R$ 610,06</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>R$ 5.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>19/12/2025 07:00</t>
+          <t>03/11/2025 13:30</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>RAVI BATISTA DOS SANTOS</t>
+          <t>JOSE BENICIO TOLEDO</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>05/09/2022</t>
+          <t>09/07/2024</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -3773,7 +4616,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>R$ 6.772,46</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -3788,39 +4631,39 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>R$ 385,32</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>R$ 7.157,78</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>19/12/2025 07:00</t>
+          <t>03/11/2025 13:30</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>THEO DOS SANTOS DA COSTA</t>
+          <t>PEROLA HELENA LOPES RICARDO</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>29/10/2021</t>
+          <t>03/05/2022</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -3828,7 +4671,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -3843,39 +4686,39 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>19/12/2025 07:00</t>
+          <t>03/11/2025 13:30</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ISRAEL PHELIPE ARAUJO DA SILVA NUNES</t>
+          <t>GUILHERME DE ALMEIDA</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>11/11/2020</t>
+          <t>24/12/2017</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -3883,7 +4726,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -3898,39 +4741,39 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>19/12/2025 07:00</t>
+          <t>05/11/2025 10:00</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ISRAEL PHELIPE ARAUJO DA SILVA NUNES</t>
+          <t>JULIA EGGER MOREIRA DE CASTRO</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>11/11/2020</t>
+          <t>15/09/2013</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -3938,7 +4781,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>R$ 5.239,94</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -3953,39 +4796,39 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>R$ 610,06</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>R$ 5.850,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>19/12/2025 07:00</t>
+          <t>05/11/2025 10:00</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>RAVI BATISTA DOS SANTOS</t>
+          <t>DAVI RIBEIRO MONTUAN</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>05/09/2022</t>
+          <t>20/01/2016</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -3993,7 +4836,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -4008,39 +4851,39 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>19/12/2025 07:00</t>
+          <t>08/11/2025 10:00</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>IURY DE SOUZA QUEIROZ</t>
+          <t>NOAH DE SOUZA ALMEIDA</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>14/05/2023</t>
+          <t>21/06/2019</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -4048,7 +4891,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>R$ 5.239,94</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -4063,39 +4906,39 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>R$ 610,06</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>R$ 5.850,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>19/12/2025 07:00</t>
+          <t>15/11/2025 10:00</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>GAEL DO NASCIMENTO LEGENTIL</t>
+          <t>GABRIEL GRIMALDO DE SOUZA E OLIVEIRA</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>01/03/2024</t>
+          <t>25/10/2016</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>CORRECAO DE HIPOSPADIA (1º TEMPO) - PEDIATRICO</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -4103,7 +4946,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>R$ 6.235,90</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -4118,39 +4961,39 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>R$ 372,96</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>R$ 6.608,86</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>22/12/2025 07:00</t>
+          <t>15/11/2025 10:00</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SUSAN SOPHIA OLIVEIRA DA SILVA</t>
+          <t>ELOY DOUGLAS COSTA DA SILVA</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>25/01/2022</t>
+          <t>24/06/2023</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -4158,7 +5001,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -4173,39 +5016,39 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>22/12/2025 07:00</t>
+          <t>15/11/2025 10:00</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SUSAN SOPHIA OLIVEIRA DA SILVA</t>
+          <t>JOHN KEVEN PITZER DA SILVA</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>25/01/2022</t>
+          <t>17/11/2021</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -4213,7 +5056,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>R$ 5.239,94</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -4228,34 +5071,34 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>R$ 610,06</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>R$ 5.850,00</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>22/12/2025 07:00</t>
+          <t>15/11/2025 10:00</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ENZO GABRIEL VIEIRA LAMEIRA</t>
+          <t>NICOLLAS DE SOUZA NOBREGA</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>14/02/2012</t>
+          <t>26/11/2018</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -4295,27 +5138,27 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>05/01/2026 11:00</t>
+          <t>15/11/2025 10:00</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>KEVIN OLIVEIRA BRITO DE JESUS</t>
+          <t>MARCOS ANTONIO DA CONCEICAO ALVES</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>29/01/2014</t>
+          <t>24/08/2017</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -4323,7 +5166,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.802,07</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -4338,39 +5181,39 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 434,99</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>05/01/2026 11:00</t>
+          <t>15/11/2025 10:00</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>MIGUEL DE MATTOS SALES</t>
+          <t>ELOY DOUGLAS COSTA DA SILVA</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>28/08/2019</t>
+          <t>24/06/2023</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -4378,7 +5221,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.772,46</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -4393,39 +5236,39 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 385,32</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.157,78</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>05/01/2026 11:00</t>
+          <t>16/11/2025 08:00</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ABNNER DOS SANTOS NASCIMENTO</t>
+          <t>PALLOMA TOSTA DOS SANTOS SILVA</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>15/04/2020</t>
+          <t>31/05/2014</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -4433,7 +5276,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -4448,39 +5291,39 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>05/01/2026 11:00</t>
+          <t>16/11/2025 08:00</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>BERNARDO DAVI SOUSA VENANCIO</t>
+          <t>JONAS MIGUEL BANNI DA SILVA JUNIOR</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>29/01/2018</t>
+          <t>22/04/2017</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -4488,7 +5331,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -4503,39 +5346,39 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>05/01/2026 11:00</t>
+          <t>16/11/2025 08:00</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>MICAEL ANTONIO RODRIGUES PONTES</t>
+          <t>NOAH BANNI LUGAO</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>04/10/2021</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -4543,7 +5386,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -4558,34 +5401,34 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>09/01/2026 07:00</t>
+          <t>16/11/2025 10:00</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>KEVIN OLIVEIRA BRITO DE JESUS</t>
+          <t>KAUA SILVA RANGEL</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>29/01/2014</t>
+          <t>27/01/2020</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -4625,27 +5468,27 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>09/01/2026 07:00</t>
+          <t>20/10/2025 15:00</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>MIGUEL DE MATTOS SALES</t>
+          <t>ANA CAROLINA DA ROCHA MIRANDA</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>28/08/2019</t>
+          <t>19/01/2014</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -4653,7 +5496,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -4668,39 +5511,39 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>09/01/2026 07:00</t>
+          <t>22/10/2025 10:00</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ABNNER DOS SANTOS NASCIMENTO</t>
+          <t>DERICK CESAR SANTOS RIBEIRO</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>15/04/2020</t>
+          <t>06/12/2019</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -4708,7 +5551,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -4723,39 +5566,39 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>09/01/2026 07:00</t>
+          <t>22/10/2025 10:00</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>MICAEL ANTONIO RODRIGUES PONTES</t>
+          <t>MIGUEL MIRANDA DOS SANTOS</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>17/12/2015</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -4763,7 +5606,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -4778,39 +5621,39 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>09/01/2026 07:00</t>
+          <t>22/10/2025 10:00</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>BERNARDO DAVI SOUSA VENANCIO</t>
+          <t>ASAFE COSTA RODRIGUES DE OLIVEIRA</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>29/01/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -4818,7 +5661,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -4833,34 +5676,34 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>17/12/2025 11:00</t>
+          <t>22/10/2025 10:00</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CALEB NASCIMENTO FERREIRA</t>
+          <t>ENZO GABRIEL DOS SANTOS SILVA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>09/09/2021</t>
+          <t>28/11/2016</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -4900,22 +5743,22 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>17/12/2025 11:00</t>
+          <t>22/10/2025 10:00</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>DAVI LUCAS NASCIMENTO DA SILVA</t>
+          <t>ENZO HENRIQUE RODRIGUES DOS SANTOS</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>13/08/2018</t>
+          <t>20/04/2019</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -4955,27 +5798,27 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>17/12/2025 11:00</t>
+          <t>22/10/2025 15:00</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ARTHUR MIGUEL MARQUES ARCANJO</t>
+          <t>LETICIA CARNEIRO DE OLIVEIRA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>28/01/2020</t>
+          <t>14/07/2014</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -5010,27 +5853,27 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>19/12/2025 07:00</t>
+          <t>22/10/2025 15:00</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CALEB NASCIMENTO FERREIRA</t>
+          <t>LEONARDO DE BARROS BRAGA</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>09/09/2021</t>
+          <t>25/07/2015</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -5038,7 +5881,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -5053,39 +5896,39 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>19/12/2025 07:00</t>
+          <t>01/11/2025 09:00</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>ARTHUR MIGUEL MARQUES ARCANJO</t>
+          <t>LORENZO LUIZ CUNHA LOPES</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>28/01/2020</t>
+          <t>17/04/2022</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -5093,7 +5936,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -5108,34 +5951,34 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>19/12/2025 07:00</t>
+          <t>01/11/2025 10:00</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>DAVI LUCAS NASCIMENTO DA SILVA</t>
+          <t>ENZO HENRIQUE RODRIGUES DOS SANTOS</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>13/08/2018</t>
+          <t>20/04/2019</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -5175,27 +6018,27 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>05/01/2026 11:00</t>
+          <t>01/11/2025 10:00</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>GUSTTAVO MUNIZ DE SOUZA</t>
+          <t>ENZO HENRIQUE RODRIGUES DOS SANTOS</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>22/11/2016</t>
+          <t>20/04/2019</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -5203,7 +6046,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 5.239,94</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -5218,39 +6061,39 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 610,06</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.850,00</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>05/01/2026 11:00</t>
+          <t>12/11/2025 08:00</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>PEDRO HENRIQUE DA S DE PAULA</t>
+          <t>ANA CAROLINA DA ROCHA MIRANDA</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>15/10/2014</t>
+          <t>19/01/2014</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -5258,7 +6101,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -5273,39 +6116,39 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>05/01/2026 11:00</t>
+          <t>15/11/2025 10:00</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>JOAO PEDRO DE AZEVEDO DE SOUZA</t>
+          <t>LORENZO LUIZ CUNHA LOPES</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>31/03/2018</t>
+          <t>17/04/2022</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -5313,7 +6156,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.772,46</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -5328,39 +6171,39 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 385,32</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.157,78</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>05/01/2026 11:00</t>
+          <t>17/11/2025 08:00</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>MAICON BRYAN TORRES DE ANDRADE RABELO</t>
+          <t>MIGUEL MIRANDA DOS SANTOS</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>03/11/2014</t>
+          <t>17/12/2015</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -5368,7 +6211,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -5383,39 +6226,39 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>05/01/2026 11:00</t>
+          <t>17/11/2025 08:00</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>MICHEL FELICIANO CALIXTE</t>
+          <t>DERICK CESAR SANTOS RIBEIRO</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>09/10/2022</t>
+          <t>06/12/2019</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -5423,7 +6266,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -5438,39 +6281,39 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>09/01/2026 07:00</t>
+          <t>17/11/2025 08:00</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>MICHEL FELICIANO CALIXTE</t>
+          <t>ASAFE COSTA RODRIGUES DE OLIVEIRA</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>09/10/2022</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -5478,7 +6321,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>R$ 5.239,94</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -5493,39 +6336,39 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>R$ 610,06</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>R$ 5.850,00</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>09/01/2026 07:00</t>
+          <t>19/11/2025 10:00</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>PEDRO HENRIQUE DA S DE PAULA</t>
+          <t>LEONARDO DE BARROS BRAGA</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>15/10/2014</t>
+          <t>25/07/2015</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -5533,7 +6376,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 4.250,90</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -5548,39 +6391,39 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 1.079,10</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 5.330,00</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>09/01/2026 07:00</t>
+          <t>19/11/2025 10:00</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>GUSTTAVO MUNIZ DE SOUZA</t>
+          <t>LETICIA CARNEIRO DE OLIVEIRA</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>22/11/2016</t>
+          <t>14/07/2014</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -5588,7 +6431,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>R$ 5.239,94</t>
+          <t>R$ 4.250,90</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -5603,39 +6446,39 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>R$ 610,06</t>
+          <t>R$ 1.079,10</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>R$ 5.850,00</t>
+          <t>R$ 5.330,00</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Nilópolis</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>09/01/2026 07:00</t>
+          <t>22/10/2025 10:00</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>JOAO PEDRO DE AZEVEDO DE SOUZA</t>
+          <t>ITALO GABRIEL PEREIRA DA SILVA</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>31/03/2018</t>
+          <t>09/05/2017</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -5643,7 +6486,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -5658,39 +6501,39 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Nilópolis</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>09/01/2026 07:00</t>
+          <t>03/11/2025 13:30</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>JOAO PEDRO DE AZEVEDO DE SOUZA</t>
+          <t>LEVI MATUE DA SILVA SANTOS</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>31/03/2018</t>
+          <t>25/07/2021</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -5698,7 +6541,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -5713,67 +6556,1992 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
+          <t>RJ - Nilópolis</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>03/11/2025 13:30</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>GAEL SANT ANNA CAMPOS DE JESUS</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>18/06/2020</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>R$ 290,00</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>R$ 10,00</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>R$ 300,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>RJ - Nilópolis</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>16/11/2025 10:00</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>GAEL SANT ANNA CAMPOS DE JESUS</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>18/06/2020</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>R$ 4.630,88</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>R$ 219,12</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>R$ 4.850,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>RJ - Nilópolis</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>16/11/2025 10:00</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>LEVI MATUE DA SILVA SANTOS</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>25/07/2021</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>R$ 4.630,88</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>R$ 219,12</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>R$ 4.850,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>RJ - Nova Iguaçu</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>20/10/2025 15:00</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>BERNARDO AMARO TAVARES</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>09/11/2016</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>1</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>R$ 290,00</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>R$ 10,00</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>R$ 300,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>RJ - Nova Iguaçu</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>20/10/2025 15:00</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>GUILHERME DA CRUZ DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>04/06/2012</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>1</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>R$ 290,00</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>R$ 10,00</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>R$ 300,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>RJ - Nova Iguaçu</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>20/10/2025 15:00</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>MARIA CLARA MARQUES DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>24/03/2015</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>R$ 290,00</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>R$ 10,00</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>R$ 300,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>RJ - Nova Iguaçu</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>22/10/2025 15:00</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>ANA JULIA COSTA DE SOUZA</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>17/08/2015</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>R$ 290,00</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>R$ 10,00</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>R$ 300,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>RJ - Nova Iguaçu</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>22/10/2025 15:00</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>MIRELLA TELES DA SILVA</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>15/12/2015</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>1</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>R$ 290,00</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>R$ 10,00</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>R$ 300,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>RJ - Nova Iguaçu</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>08/11/2025 10:00</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>BERNARDO AMARO TAVARES</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>09/11/2016</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>R$ 6.514,54</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>R$ 1.183,81</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>R$ 7.698,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>RJ - Nova Iguaçu</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>08/11/2025 10:00</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>MARIA CLARA MARQUES DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>24/03/2015</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>R$ 6.514,54</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>R$ 1.183,81</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>R$ 7.698,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>RJ - Nova Iguaçu</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>09/11/2025 10:00</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>MIRELLA TELES DA SILVA</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>15/12/2015</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA- PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>R$ 5.640,01</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>R$ 1.073,00</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>R$ 6.713,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>RJ - Nova Iguaçu</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>10/11/2025 10:00</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>ANA JULIA COSTA DE SOUZA</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>17/08/2015</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>R$ 4.250,90</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>R$ 1.079,10</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>R$ 5.330,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>RJ - Nova Iguaçu</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>12/11/2025 08:00</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>GUILHERME DA CRUZ DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>04/06/2012</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>R$ 6.514,54</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>R$ 1.183,81</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>R$ 7.698,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>RJ - Paracambi</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>27/10/2025 15:00</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>JOAO ISAC PITZR FERREIRA</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>25/07/2017</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>1</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>R$ 290,00</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>R$ 10,00</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>R$ 300,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>RJ - Queimados</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>22/10/2025 10:00</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>THEO HENRIQUE GAMA BRANDI</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>05/02/2019</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>1</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>R$ 290,00</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>R$ 10,00</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>R$ 300,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>RJ - Queimados</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>22/10/2025 10:00</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>LUCAS EDURADO DA COSTA COELHO</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>03/07/2014</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>R$ 290,00</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>R$ 10,00</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>R$ 300,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>RJ - Queimados</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>22/10/2025 10:00</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>MIRELY VITORIA GOMES MONSORES</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>22/11/2020</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>1</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>R$ 290,00</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>R$ 10,00</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>R$ 300,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>RJ - Queimados</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>22/10/2025 10:00</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>THEO LUCAS DOS SANTOS NEPOMUCENO</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>25/01/2021</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>R$ 290,00</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>R$ 10,00</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>R$ 300,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>RJ - Queimados</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>22/10/2025 10:00</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>BRYAN LUIS SILVA VITOR</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>08/04/2019</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>R$ 290,00</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>R$ 10,00</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>R$ 300,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>RJ - Queimados</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>22/10/2025 10:00</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>MYGUEL BENICIO DA SILVA</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>17/02/2014</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>R$ 290,00</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>R$ 10,00</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>R$ 300,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>RJ - Queimados</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>22/10/2025 10:00</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>MIGUEL ZYAN DOS SANTOS SILVA</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>05/04/2021</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>1</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>R$ 290,00</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>R$ 10,00</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>R$ 300,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>RJ - Queimados</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>01/11/2025 10:00</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>THEO LUCAS DOS SANTOS NEPOMUCENO</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>25/01/2021</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>1</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>R$ 4.630,88</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>R$ 219,12</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>R$ 4.850,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>RJ - Queimados</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>01/11/2025 10:00</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>MIGUEL ZYAN DOS SANTOS SILVA</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>05/04/2021</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>1</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>R$ 5.239,94</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>R$ 610,06</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>R$ 5.850,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>RJ - Queimados</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>01/11/2025 10:00</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>MIGUEL ZYAN DOS SANTOS SILVA</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>05/04/2021</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>1</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>R$ 4.802,07</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>R$ 434,99</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>R$ 5.237,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>RJ - Queimados</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>01/11/2025 10:00</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>MIGUEL ZYAN DOS SANTOS SILVA</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>05/04/2021</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>1</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>R$ 4.630,88</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>R$ 219,12</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>R$ 4.850,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>RJ - Queimados</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>01/11/2025 10:00</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>MIRELY VITORIA GOMES MONSORES</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>22/11/2020</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>1</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>R$ 4.802,07</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>R$ 434,99</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>R$ 5.237,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>RJ - Queimados</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>01/11/2025 10:00</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>MYGUEL BENICIO DA SILVA</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>17/02/2014</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>1</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>R$ 4.630,88</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>R$ 219,12</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>R$ 4.850,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
           <t>RJ - São João de Meriti</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>09/01/2026 07:00</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>MAICON BRYAN TORRES DE ANDRADE RABELO</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>03/11/2014</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>22/10/2025 15:00</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>ENZO EMANUEL CEZAR SEIXAS DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>01/09/2018</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>1</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>R$ 290,00</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>R$ 10,00</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>R$ 300,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>RJ - São João de Meriti</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>25/10/2025 10:00</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>ENZO EMANUEL CEZAR SEIXAS DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>01/09/2018</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>1</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>R$ 6.514,54</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>R$ 1.183,81</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>R$ 7.698,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>RJ - São João de Meriti</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>01/11/2025 09:00</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>CAIQUE MOTA DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>23/04/2018</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>1</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>R$ 290,00</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>R$ 10,00</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>R$ 300,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>RJ - São João de Meriti</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>03/11/2025 13:30</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>GAEL SANTOS VARGAS</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>29/06/2023</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>1</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>R$ 290,00</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>R$ 10,00</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>R$ 300,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>RJ - São João de Meriti</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>03/11/2025 13:30</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>ARTHUR SENA LAPROVITA LEMOS</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>13/08/2021</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>1</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>R$ 290,00</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>R$ 10,00</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>R$ 300,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>RJ - São João de Meriti</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>08/11/2025 10:00</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>ARTHUR SENA LAPROVITA LEMOS</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>13/08/2021</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>1</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>R$ 6.772,46</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>R$ 385,32</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>R$ 7.157,78</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>RJ - São João de Meriti</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>15/11/2025 10:00</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>CAIQUE MOTA DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>23/04/2018</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
         <is>
           <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
-      <c r="F73" t="n">
-        <v>1</v>
-      </c>
-      <c r="G73" t="inlineStr">
+      <c r="F106" t="n">
+        <v>1</v>
+      </c>
+      <c r="G106" t="inlineStr">
         <is>
           <t>R$ 4.630,88</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
         <is>
           <t>R$ 219,12</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr">
+      <c r="K106" t="inlineStr">
         <is>
           <t>R$ 4.850,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>RJ - Seropédica</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>01/11/2025 09:00</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>ALLANA VALENTINA DE OLIVEIRA DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>04/04/2020</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>1</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>R$ 290,00</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>R$ 10,00</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>R$ 300,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>RJ - Seropédica</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>15/11/2025 10:00</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>ALLANA VALENTINA DE OLIVEIRA DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>04/04/2020</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>1</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>R$ 4.802,07</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>R$ 434,99</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>

--- a/relatorios_simplificados/separarNeotin_SIMPLIFICADO.xlsx
+++ b/relatorios_simplificados/separarNeotin_SIMPLIFICADO.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD30"/>
+  <dimension ref="A1:AG17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,120 +467,135 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Paciente RJ - Itaguaí</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>RJ - Itaguaí</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Quantidade RJ - Itaguaí</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Paciente RJ - Japeri</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>RJ - Japeri</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Quantidade RJ - Japeri</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Paciente RJ - Magé</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>RJ - Magé</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Quantidade RJ - Magé</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Paciente RJ - Mesquita</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>RJ - Mesquita</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Quantidade RJ - Mesquita</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Paciente RJ - Nilópolis</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>RJ - Nilópolis</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Quantidade RJ - Nilópolis</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Paciente RJ - Nova Iguaçu</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Quantidade RJ - Nova Iguaçu</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Paciente RJ - Paracambi</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>RJ - Paracambi</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Quantidade RJ - Paracambi</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Paciente RJ - Queimados</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>RJ - Queimados</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Quantidade RJ - Queimados</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Paciente RJ - São João de Meriti</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>RJ - São João de Meriti</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Quantidade RJ - São João de Meriti</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Paciente RJ - Seropédica</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>RJ - Seropédica</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Quantidade RJ - Seropédica</t>
         </is>
@@ -589,7 +604,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MARIA HELOISA DE LIMA SOUZA</t>
+          <t>RICHARD SILVA DOS SANTOS AMANCIO</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -602,7 +617,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SARAH MATTOSINHOS HARTMAN</t>
+          <t>KEMILLY FERNANDES LIRA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -615,7 +630,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>NOAH DE SOUZA ALMEIDA</t>
+          <t>MIGUEL DA SILVA ALMEIDA</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -628,7 +643,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>ANA CAROLINA DA ROCHA MIRANDA</t>
+          <t>DOUGLAS MORAES DOS REIS</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -641,7 +656,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>ITALO GABRIEL PEREIRA DA SILVA</t>
+          <t>JOAO PEDRO ZAMPIROLLI GAMA</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -654,189 +669,225 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>BERNARDO AMARO TAVARES</t>
+          <t>DAVI LUIZ DE ALMEIDA PEREIRA</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>ANGEL SOPHIA GONCALVES COUTO</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>BERNARDO FLORES DA CUNHA DE MORAES</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
-      <c r="R2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>JOAO ISAC PITZR FERREIRA</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
+      <c r="X2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>ANA DE OLIVEIRA NASCIMENTO</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="AA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>GAEL SANTOS VARGAS</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="AD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>ANNA CLARA DOS SANTOS GONCALVES</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
         <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>THEO HENRIQUE GAMA BRANDI</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="X2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>ENZO EMANUEL CEZAR SEIXAS DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
-        </is>
-      </c>
-      <c r="AA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>ALLANA VALENTINA DE OLIVEIRA DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="AD2" t="n">
+      <c r="AG2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MARIA VITORIA SANTOS DA SILVA</t>
+          <t>RICHARD SILVA DOS SANTOS AMANCIO</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>BERNARDO BARBOSA DE JESUS</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>YASMIN GABRIELLY VENTURA OLIVEIRA</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>MIGUEL DA SILVA ALMEIDA</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>MALLU REIS NASCIMENTO</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>DAVI RIBEIRO MONTUAN</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>JOAO PEDRO ZAMPIROLLI GAMA</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>DAVI LUIZ DE ALMEIDA PEREIRA</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>ISADORA SANTOS DE SOUSA</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>JOAO ISAC PITZR FERREIRA</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="X3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>ARTHUR PINHEIRO RESSURREICAO</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="AA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>GAEL SANTOS VARGAS</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="AD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>CLARICE GUIMARAES KIFFER DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
         <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>DERICK CESAR SANTOS RIBEIRO</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>LEVI MATUE DA SILVA SANTOS</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>GUILHERME DA CRUZ DE OLIVEIRA</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
-        </is>
-      </c>
-      <c r="R3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>LUCAS EDURADO DA COSTA COELHO</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="X3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>ENZO EMANUEL CEZAR SEIXAS DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="AA3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>ALLANA VALENTINA DE OLIVEIRA DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="AD3" t="n">
+      <c r="AG3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -846,7 +897,7 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>GAEL RODRIGO MEDELA BARBOSA</t>
+          <t>ESTELA SILVA DA COSTA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -857,69 +908,69 @@
       <c r="F4" t="n">
         <v>1</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>JULIA EGGER MOREIRA DE CASTRO</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VICTOR HUGO DA SILVA DE SOUZA</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>MIGUEL MIRANDA DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>JOAO PEDRO ZAMPIROLLI GAMA</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>CAIO BRAZ DOMINGOS MARTINS</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>KEROLLAYNE VITORIA DA COSTA SILVA</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
         <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>GAEL SANT ANNA CAMPOS DE JESUS</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>MARIA CLARA MARQUES DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
-        </is>
-      </c>
-      <c r="R4" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>MIRELY VITORIA GOMES MONSORES</t>
+          <t>BERNARDO FLORES DA CUNHA DE MORAES</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="X4" t="n">
@@ -927,7 +978,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>CAIQUE MOTA DOS SANTOS</t>
+          <t>BENTO SOUZA PEREIRA</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -941,6 +992,19 @@
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>JOAO PEDRO ESPIRITO SANTO DA ROCHA</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="AG4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -948,7 +1012,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PEDRO PAULO MIRANDA MANHAES</t>
+          <t>MARIA JULIA MACEDO DOS SANTOS</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -959,40 +1023,30 @@
       <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>PALLOMA TOSTA DOS SANTOS SILVA</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>MARINA LUISA SOARES AZEVEDO</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>ASAFE COSTA RODRIGUES DE OLIVEIRA</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>GAEL SANT ANNA CAMPOS DE JESUS</t>
+          <t>PEROLA HELENA LOPES RICARDO</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -1000,7 +1054,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>ANA JULIA COSTA DE SOUZA</t>
+          <t>LUIZ FERNANDO OLIVEIRA PRUDENTE</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1011,17 +1065,27 @@
       <c r="R5" t="n">
         <v>1</v>
       </c>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>ANGEL SOPHIA GONCALVES COUTO</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>THEO LUCAS DOS SANTOS NEPOMUCENO</t>
+          <t>HEITOR RAVI SILVERIO FELICIANO</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="X5" t="n">
@@ -1029,7 +1093,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>GAEL SANTOS VARGAS</t>
+          <t>PIETRO COELHO DE AZEVEDO</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1043,6 +1107,19 @@
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>TAYLER MATHEUS FERREIRA DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="AG5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
@@ -1050,88 +1127,78 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>RUAN MIGUEL DA SILVA PINHEIRO</t>
+          <t>ESTELA SILVA DA COSTA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>DOUGLAS MORAES DOS REIS</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>LUIZ FERNANDO OLIVEIRA PRUDENTE</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>ISADORA SANTOS DE SOUSA</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>LORENZZO DOS SANTOS BRUZAO</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>JONAS MIGUEL BANNI DA SILVA JUNIOR</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>ENZO GABRIEL DOS SANTOS SILVA</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>LEVI MATUE DA SILVA SANTOS</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>MIRELLA TELES DA SILVA</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
-        </is>
-      </c>
-      <c r="R6" t="n">
-        <v>1</v>
-      </c>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>BRYAN LUIS SILVA VITOR</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
       <c r="X6" t="n">
         <v>1</v>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>ARTHUR SENA LAPROVITA LEMOS</t>
+          <t>PEDRO LUCCA BARBOSA RAMOS</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1145,6 +1212,19 @@
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>EDUARDA CABRAL DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="AG6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
@@ -1152,38 +1232,28 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>GIOVANNA VITORIA SILVA LUCIANO</t>
+          <t>KEMILLY FERNANDES LIRA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+          <t>AMIGDALECTOMIA- PEDIATRICO</t>
         </is>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>NOAH BANNI LUGAO</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>ENZO HENRIQUE RODRIGUES DOS SANTOS</t>
+          <t>VICTOR HUGO DA SILVA DE SOUZA</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -1194,7 +1264,7 @@
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>BERNARDO AMARO TAVARES</t>
+          <t>CAIO BRAZ DOMINGOS MARTINS</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1210,12 +1280,12 @@
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr">
         <is>
-          <t>MYGUEL BENICIO DA SILVA</t>
+          <t>HEITOR RAVI SILVERIO FELICIANO</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="X7" t="n">
@@ -1223,12 +1293,12 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>ARTHUR SENA LAPROVITA LEMOS</t>
+          <t>ANA DE OLIVEIRA NASCIMENTO</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="AA7" t="n">
@@ -1237,6 +1307,19 @@
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>RAFAELLA MARIA FRAGOSO FONTES DA SILVA MARTINS</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="AG7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
@@ -1244,38 +1327,28 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MARIA EDUARDA CAMILO GONCALVES MOTTA</t>
+          <t>MARIA JULIA MACEDO DOS SANTOS</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>ELOY DOUGLAS COSTA DA SILVA</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>LETICIA CARNEIRO DE OLIVEIRA</t>
+          <t>MARINA LUISA SOARES AZEVEDO</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -1284,30 +1357,20 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>MARIA CLARA MARQUES DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="R8" t="n">
-        <v>1</v>
-      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr">
         <is>
-          <t>MIGUEL ZYAN DOS SANTOS SILVA</t>
+          <t>LORENZZO DOS SANTOS BRUZAO</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="X8" t="n">
@@ -1315,7 +1378,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>CAIQUE MOTA DOS SANTOS</t>
+          <t>BENTO SOUZA PEREIRA</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1329,6 +1392,19 @@
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>ISAQUE GADIEL FERREIRA BARBOSA COSTA</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="AG8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -1336,38 +1412,28 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NATHAN BAPTISTA DA SILVA ALVES</t>
+          <t>GIOVANNA VITORIA SILVA LUCIANO</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>JOHN KEVEN PITZER DA SILVA</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>LEONARDO DE BARROS BRAGA</t>
+          <t>MALLU REIS NASCIMENTO</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -1376,41 +1442,34 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>MIRELLA TELES DA SILVA</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>AMIGDALECTOMIA- PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="R9" t="n">
-        <v>1</v>
-      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>THEO LUCAS DOS SANTOS NEPOMUCENO</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="X9" t="n">
-        <v>1</v>
-      </c>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>HECTOR FIGUEIREDO ALT</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="AG9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
@@ -1418,38 +1477,28 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ALICE VIEIRA SOUZA</t>
+          <t>NATHAN BAPTISTA DA SILVA ALVES</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>LAVINIA MACEDO DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>NICOLLAS DE SOUZA NOBREGA</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>LORENZO LUIZ CUNHA LOPES</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -1458,41 +1507,34 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>ANA JULIA COSTA DE SOUZA</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
-        </is>
-      </c>
-      <c r="R10" t="n">
-        <v>1</v>
-      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>MIGUEL ZYAN DOS SANTOS SILVA</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="X10" t="n">
-        <v>1</v>
-      </c>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>RAFAELLA MARIA FRAGOSO FONTES DA SILVA MARTINS</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="AG10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -1500,38 +1542,28 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>HEYTOR DE ARAUJO DOS SANTOS</t>
+          <t>BERNARDO BARBOSA DE JESUS</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>1</v>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>MARCOS ANTONIO DA CONCEICAO ALVES</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>ENZO HENRIQUE RODRIGUES DOS SANTOS</t>
+          <t>LAVINIA MACEDO DE OLIVEIRA</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -1540,41 +1572,34 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>GUILHERME DA CRUZ DE OLIVEIRA</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="R11" t="n">
-        <v>1</v>
-      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>MIGUEL ZYAN DOS SANTOS SILVA</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="X11" t="n">
-        <v>1</v>
-      </c>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>CLARICE GUIMARAES KIFFER DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="AG11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
@@ -1582,43 +1607,23 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>MARIANA VIEIRA SOUZA</t>
+          <t>ALICE VIEIRA SOUZA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+          <t>AMIGDALECTOMIA- PEDIATRICO</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>1</v>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>ABNER DA COSTA ABDALLA JACOB</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>ENZO HENRIQUE RODRIGUES DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -1628,25 +1633,28 @@
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>MIGUEL ZYAN DOS SANTOS SILVA</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="X12" t="n">
-        <v>1</v>
-      </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>ANNA CLARA DOS SANTOS GONCALVES</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="AG12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
@@ -1654,43 +1662,23 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>MIGUEL DA SILVA PRATA</t>
+          <t>MARIANA VIEIRA SOUZA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+          <t>AMIGDALECTOMIA- PEDIATRICO</t>
         </is>
       </c>
       <c r="F13" t="n">
         <v>1</v>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>GABRIEL GRIMALDO DE SOUZA E OLIVEIRA</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>ANA CAROLINA DA ROCHA MIRANDA</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1700,69 +1688,42 @@
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>MIRELY VITORIA GOMES MONSORES</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="X13" t="n">
-        <v>1</v>
-      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>EDUARDA CABRAL DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="AG13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>SARAH MATTOSINHOS HARTMAN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>AMIGDALECTOMIA- PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>KAUA SILVA RANGEL</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>LORENZO LUIZ CUNHA LOPES</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1772,69 +1733,42 @@
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>MYGUEL BENICIO DA SILVA</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="X14" t="n">
-        <v>1</v>
-      </c>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>TAYLER MATHEUS FERREIRA DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="AG14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>GAEL RODRIGO MEDELA BARBOSA</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>JOSE BENICIO TOLEDO</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>MIGUEL MIRANDA DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1853,50 +1787,33 @@
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>JOAO PEDRO ESPIRITO SANTO DA ROCHA</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
+        </is>
+      </c>
+      <c r="AG15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>YASMIN GABRIELLY VENTURA OLIVEIRA</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>PEROLA HELENA LOPES RICARDO</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>DERICK CESAR SANTOS RIBEIRO</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1915,50 +1832,33 @@
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>ISAQUE GADIEL FERREIRA BARBOSA COSTA</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="AG16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>MIGUEL DA SILVA PRATA</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>GUILHERME DE ALMEIDA</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>ASAFE COSTA RODRIGUES DE OLIVEIRA</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1977,612 +1877,19 @@
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>PEDRO PAULO MIRANDA MANHAES</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>JULIA EGGER MOREIRA DE CASTRO</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>LEONARDO DE BARROS BRAGA</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>HEYTOR DE ARAUJO DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>DAVI RIBEIRO MONTUAN</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>LETICIA CARNEIRO DE OLIVEIRA</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>MARIA EDUARDA CAMILO GONCALVES MOTTA</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>NOAH DE SOUZA ALMEIDA</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>RUAN MIGUEL DA SILVA PINHEIRO</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>GABRIEL GRIMALDO DE SOUZA E OLIVEIRA</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>HECTOR FIGUEIREDO ALT</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
         <is>
           <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>ELOY DOUGLAS COSTA DA SILVA</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="inlineStr"/>
-      <c r="AC22" t="inlineStr"/>
-      <c r="AD22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>JOHN KEVEN PITZER DA SILVA</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
-      <c r="AB23" t="inlineStr"/>
-      <c r="AC23" t="inlineStr"/>
-      <c r="AD23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>NICOLLAS DE SOUZA NOBREGA</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="inlineStr"/>
-      <c r="AD24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>MARCOS ANTONIO DA CONCEICAO ALVES</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="inlineStr"/>
-      <c r="AC25" t="inlineStr"/>
-      <c r="AD25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>ELOY DOUGLAS COSTA DA SILVA</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="inlineStr"/>
-      <c r="AD26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>PALLOMA TOSTA DOS SANTOS SILVA</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>JONAS MIGUEL BANNI DA SILVA JUNIOR</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>NOAH BANNI LUGAO</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>KAUA SILVA RANGEL</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
-      <c r="AD30" t="inlineStr"/>
+      <c r="AG17" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2595,7 +1902,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K108"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2668,17 +1975,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>14/11/2025 13:00</t>
+          <t>24/11/2025 13:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MARIA HELOISA DE LIMA SOUZA</t>
+          <t>RICHARD SILVA DOS SANTOS AMANCIO</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10/12/2020</t>
+          <t>14/01/2020</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -2723,22 +2030,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>14/11/2025 13:00</t>
+          <t>06/12/2025 11:00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MARIA VITORIA SANTOS DA SILVA</t>
+          <t>RICHARD SILVA DOS SANTOS AMANCIO</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23/07/2014</t>
+          <t>14/01/2020</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -2746,7 +2053,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -2761,12 +2068,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
@@ -2778,17 +2085,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>20/10/2025 15:00</t>
+          <t>24/11/2025 13:00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SARAH MATTOSINHOS HARTMAN</t>
+          <t>KEMILLY FERNANDES LIRA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10/02/2022</t>
+          <t>01/05/2019</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -2833,17 +2140,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>20/10/2025 15:00</t>
+          <t>24/11/2025 15:00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>YASMIN GABRIELLY VENTURA OLIVEIRA</t>
+          <t>BERNARDO BARBOSA DE JESUS</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12/02/2015</t>
+          <t>16/11/2014</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -2888,17 +2195,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>20/10/2025 15:00</t>
+          <t>24/11/2025 15:00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>GAEL RODRIGO MEDELA BARBOSA</t>
+          <t>ESTELA SILVA DA COSTA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>28/11/2019</t>
+          <t>27/02/2022</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -2943,17 +2250,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>20/10/2025 15:00</t>
+          <t>24/11/2025 15:00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PEDRO PAULO MIRANDA MANHAES</t>
+          <t>MARIA JULIA MACEDO DOS SANTOS</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>30/04/2022</t>
+          <t>02/09/2020</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -2998,22 +2305,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>20/10/2025 15:00</t>
+          <t>30/11/2025 08:00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>RUAN MIGUEL DA SILVA PINHEIRO</t>
+          <t>ESTELA SILVA DA COSTA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>14/04/2016</t>
+          <t>27/02/2022</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -3021,7 +2328,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -3036,12 +2343,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
@@ -3053,22 +2360,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>20/10/2025 15:00</t>
+          <t>30/11/2025 08:00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>GIOVANNA VITORIA SILVA LUCIANO</t>
+          <t>KEMILLY FERNANDES LIRA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>19/02/2019</t>
+          <t>01/05/2019</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+          <t>AMIGDALECTOMIA- PEDIATRICO</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -3076,7 +2383,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 5.640,01</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -3091,12 +2398,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.073,00</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 6.713,01</t>
         </is>
       </c>
     </row>
@@ -3108,22 +2415,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>20/10/2025 15:00</t>
+          <t>30/11/2025 08:00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MARIA EDUARDA CAMILO GONCALVES MOTTA</t>
+          <t>MARIA JULIA MACEDO DOS SANTOS</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>25/05/2017</t>
+          <t>02/09/2020</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -3131,7 +2438,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -3146,12 +2453,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
@@ -3163,22 +2470,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>20/10/2025 15:00</t>
+          <t>30/11/2025 08:00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NATHAN BAPTISTA DA SILVA ALVES</t>
+          <t>GIOVANNA VITORIA SILVA LUCIANO</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>12/04/2022</t>
+          <t>19/02/2019</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -3186,7 +2493,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -3201,12 +2508,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
@@ -3218,22 +2525,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>22/10/2025 15:00</t>
+          <t>30/11/2025 08:00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ALICE VIEIRA SOUZA</t>
+          <t>NATHAN BAPTISTA DA SILVA ALVES</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>18/03/2019</t>
+          <t>12/04/2022</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -3241,7 +2548,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -3256,12 +2563,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
@@ -3273,22 +2580,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>22/10/2025 15:00</t>
+          <t>03/12/2025 08:00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>HEYTOR DE ARAUJO DOS SANTOS</t>
+          <t>BERNARDO BARBOSA DE JESUS</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10/10/2021</t>
+          <t>16/11/2014</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -3296,7 +2603,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -3311,12 +2618,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
@@ -3328,12 +2635,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>22/10/2025 15:00</t>
+          <t>06/12/2025 08:00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MARIANA VIEIRA SOUZA</t>
+          <t>ALICE VIEIRA SOUZA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -3343,7 +2650,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+          <t>AMIGDALECTOMIA- PEDIATRICO</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -3351,7 +2658,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 5.640,01</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -3366,12 +2673,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.073,00</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 6.713,01</t>
         </is>
       </c>
     </row>
@@ -3383,22 +2690,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>22/10/2025 15:00</t>
+          <t>06/12/2025 08:00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MIGUEL DA SILVA PRATA</t>
+          <t>MARIANA VIEIRA SOUZA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>07/12/2016</t>
+          <t>18/03/2019</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+          <t>AMIGDALECTOMIA- PEDIATRICO</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -3406,7 +2713,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 5.640,01</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -3421,39 +2728,39 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.073,00</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 6.713,01</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>RJ - Duque de Caxias</t>
+          <t>RJ - Itaguaí</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>25/10/2025 10:00</t>
+          <t>24/11/2025 13:00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SARAH MATTOSINHOS HARTMAN</t>
+          <t>MIGUEL DA SILVA ALMEIDA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>10/02/2022</t>
+          <t>28/05/2016</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>AMIGDALECTOMIA- PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -3461,7 +2768,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>R$ 5.640,01</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -3476,34 +2783,34 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>R$ 1.073,00</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>R$ 6.713,01</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>RJ - Duque de Caxias</t>
+          <t>RJ - Itaguaí</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>25/10/2025 10:00</t>
+          <t>06/12/2025 11:00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>GAEL RODRIGO MEDELA BARBOSA</t>
+          <t>MIGUEL DA SILVA ALMEIDA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>28/11/2019</t>
+          <t>28/05/2016</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -3543,27 +2850,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>RJ - Duque de Caxias</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>25/10/2025 10:00</t>
+          <t>24/11/2025 15:00</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>YASMIN GABRIELLY VENTURA OLIVEIRA</t>
+          <t>DOUGLAS MORAES DOS REIS</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>12/02/2015</t>
+          <t>11/06/2020</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -3571,7 +2878,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>R$ 4.250,90</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -3586,39 +2893,39 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>R$ 1.079,10</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>R$ 5.330,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>RJ - Duque de Caxias</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>05/11/2025 11:00</t>
+          <t>24/11/2025 15:00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MIGUEL DA SILVA PRATA</t>
+          <t>MALLU REIS NASCIMENTO</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>07/12/2016</t>
+          <t>22/03/2021</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -3626,7 +2933,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>R$ 6.514,54</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -3641,39 +2948,39 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>R$ 1.183,81</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>R$ 7.698,35</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>RJ - Duque de Caxias</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>08/11/2025 10:00</t>
+          <t>24/11/2025 15:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PEDRO PAULO MIRANDA MANHAES</t>
+          <t>VICTOR HUGO DA SILVA DE SOUZA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>30/04/2022</t>
+          <t>13/07/2020</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -3681,7 +2988,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>R$ 6.514,54</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -3696,39 +3003,39 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>R$ 1.183,81</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>R$ 7.698,35</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>RJ - Duque de Caxias</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>10/11/2025 10:00</t>
+          <t>24/11/2025 15:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>HEYTOR DE ARAUJO DOS SANTOS</t>
+          <t>MARINA LUISA SOARES AZEVEDO</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>10/10/2021</t>
+          <t>10/03/2018</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -3736,7 +3043,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>R$ 4.250,90</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -3751,34 +3058,34 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>R$ 1.079,10</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>R$ 5.330,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>RJ - Duque de Caxias</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>12/11/2025 10:00</t>
+          <t>06/12/2025 08:00</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>MARIA EDUARDA CAMILO GONCALVES MOTTA</t>
+          <t>DOUGLAS MORAES DOS REIS</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>25/05/2017</t>
+          <t>11/06/2020</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -3818,22 +3125,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>RJ - Duque de Caxias</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>19/11/2025 10:00</t>
+          <t>06/12/2025 08:00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>RUAN MIGUEL DA SILVA PINHEIRO</t>
+          <t>VICTOR HUGO DA SILVA DE SOUZA</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>14/04/2016</t>
+          <t>13/07/2020</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -3873,27 +3180,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>RJ - Magé</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>22/10/2025 15:00</t>
+          <t>06/12/2025 08:00</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NOAH DE SOUZA ALMEIDA</t>
+          <t>MARINA LUISA SOARES AZEVEDO</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>21/06/2019</t>
+          <t>10/03/2018</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -3901,7 +3208,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.250,90</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -3916,39 +3223,39 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.079,10</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.330,00</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>RJ - Magé</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>22/10/2025 15:00</t>
+          <t>06/12/2025 08:00</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DAVI RIBEIRO MONTUAN</t>
+          <t>MALLU REIS NASCIMENTO</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>20/01/2016</t>
+          <t>22/03/2021</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -3956,7 +3263,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -3971,34 +3278,34 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>RJ - Magé</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>22/10/2025 15:00</t>
+          <t>08/12/2025 15:00</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>JULIA EGGER MOREIRA DE CASTRO</t>
+          <t>LAVINIA MACEDO DE OLIVEIRA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>15/09/2013</t>
+          <t>10/02/2017</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -4038,27 +3345,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>RJ - Magé</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>27/10/2025 15:00</t>
+          <t>13/12/2025 09:00</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PALLOMA TOSTA DOS SANTOS SILVA</t>
+          <t>LAVINIA MACEDO DE OLIVEIRA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>31/05/2014</t>
+          <t>10/02/2017</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -4066,7 +3373,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -4081,12 +3388,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
@@ -4098,22 +3405,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>27/10/2025 15:00</t>
+          <t>03/12/2025 09:00</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>JONAS MIGUEL BANNI DA SILVA JUNIOR</t>
+          <t>JOAO PEDRO ZAMPIROLLI GAMA</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>22/04/2017</t>
+          <t>14/05/2019</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -4153,22 +3460,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>27/10/2025 15:00</t>
+          <t>06/12/2025 08:00</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>NOAH BANNI LUGAO</t>
+          <t>JOAO PEDRO ZAMPIROLLI GAMA</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>04/10/2021</t>
+          <t>14/05/2019</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -4176,7 +3483,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.802,07</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -4191,12 +3498,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 434,99</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>
@@ -4208,22 +3515,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>01/11/2025 09:00</t>
+          <t>06/12/2025 08:00</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ELOY DOUGLAS COSTA DA SILVA</t>
+          <t>JOAO PEDRO ZAMPIROLLI GAMA</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>24/06/2023</t>
+          <t>14/05/2019</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -4231,7 +3538,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -4246,12 +3553,12 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
@@ -4263,22 +3570,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>01/11/2025 09:00</t>
+          <t>08/12/2025 08:00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>JOHN KEVEN PITZER DA SILVA</t>
+          <t>PEROLA HELENA LOPES RICARDO</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>17/11/2021</t>
+          <t>03/05/2022</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -4286,7 +3593,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.802,07</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -4301,34 +3608,34 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 434,99</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>RJ - Magé</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>01/11/2025 09:00</t>
+          <t>01/12/2025 09:00</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NICOLLAS DE SOUZA NOBREGA</t>
+          <t>DAVI LUIZ DE ALMEIDA PEREIRA</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>26/11/2018</t>
+          <t>23/04/2021</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -4368,27 +3675,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>RJ - Magé</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>01/11/2025 09:00</t>
+          <t>08/12/2025 08:00</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MARCOS ANTONIO DA CONCEICAO ALVES</t>
+          <t>DAVI LUIZ DE ALMEIDA PEREIRA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>24/08/2017</t>
+          <t>23/04/2021</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -4396,7 +3703,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.802,07</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -4411,39 +3718,39 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 434,99</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>RJ - Magé</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>01/11/2025 09:00</t>
+          <t>08/12/2025 15:00</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ABNER DA COSTA ABDALLA JACOB</t>
+          <t>CAIO BRAZ DOMINGOS MARTINS</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>19/08/2014</t>
+          <t>01/08/2018</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -4478,27 +3785,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>RJ - Magé</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>01/11/2025 09:00</t>
+          <t>08/12/2025 15:00</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>GABRIEL GRIMALDO DE SOUZA E OLIVEIRA</t>
+          <t>LUIZ FERNANDO OLIVEIRA PRUDENTE</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>25/10/2016</t>
+          <t>10/12/2015</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -4533,27 +3840,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>RJ - Magé</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>03/11/2025 13:30</t>
+          <t>13/12/2025 09:00</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>KAUA SILVA RANGEL</t>
+          <t>LUIZ FERNANDO OLIVEIRA PRUDENTE</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>27/01/2020</t>
+          <t>10/12/2015</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -4561,7 +3868,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -4576,39 +3883,39 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>RJ - Magé</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>03/11/2025 13:30</t>
+          <t>13/12/2025 09:00</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>JOSE BENICIO TOLEDO</t>
+          <t>CAIO BRAZ DOMINGOS MARTINS</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>09/07/2024</t>
+          <t>01/08/2018</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -4616,7 +3923,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -4631,34 +3938,34 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>RJ - Magé</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>03/11/2025 13:30</t>
+          <t>03/12/2025 09:00</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>PEROLA HELENA LOPES RICARDO</t>
+          <t>ANGEL SOPHIA GONCALVES COUTO</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>03/05/2022</t>
+          <t>11/07/2021</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -4698,22 +4005,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>RJ - Magé</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>03/11/2025 13:30</t>
+          <t>03/12/2025 09:00</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>GUILHERME DE ALMEIDA</t>
+          <t>ISADORA SANTOS DE SOUSA</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>24/12/2017</t>
+          <t>07/05/2019</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -4753,27 +4060,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>RJ - Magé</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>05/11/2025 10:00</t>
+          <t>03/12/2025 09:00</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>JULIA EGGER MOREIRA DE CASTRO</t>
+          <t>KEROLLAYNE VITORIA DA COSTA SILVA</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>15/09/2013</t>
+          <t>12/12/2014</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -4781,7 +4088,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>R$ 6.514,54</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -4796,39 +4103,39 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>R$ 1.183,81</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>R$ 7.698,35</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>RJ - Magé</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>05/11/2025 10:00</t>
+          <t>06/12/2025 08:00</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>DAVI RIBEIRO MONTUAN</t>
+          <t>ANGEL SOPHIA GONCALVES COUTO</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>20/01/2016</t>
+          <t>11/07/2021</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -4836,7 +4143,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>R$ 6.514,54</t>
+          <t>R$ 5.239,94</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -4851,39 +4158,39 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>R$ 1.183,81</t>
+          <t>R$ 610,06</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>R$ 7.698,35</t>
+          <t>R$ 5.850,00</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>RJ - Magé</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>08/11/2025 10:00</t>
+          <t>06/12/2025 08:00</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>NOAH DE SOUZA ALMEIDA</t>
+          <t>ISADORA SANTOS DE SOUSA</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>21/06/2019</t>
+          <t>07/05/2019</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -4891,7 +4198,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>R$ 6.514,54</t>
+          <t>R$ 4.802,07</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -4906,39 +4213,39 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>R$ 1.183,81</t>
+          <t>R$ 434,99</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>R$ 7.698,35</t>
+          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>RJ - Magé</t>
+          <t>RJ - Paracambi</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>15/11/2025 10:00</t>
+          <t>24/11/2025 15:00</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>GABRIEL GRIMALDO DE SOUZA E OLIVEIRA</t>
+          <t>BERNARDO FLORES DA CUNHA DE MORAES</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>25/10/2016</t>
+          <t>30/03/2020</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -4946,7 +4253,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -4961,39 +4268,39 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>RJ - Magé</t>
+          <t>RJ - Paracambi</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>15/11/2025 10:00</t>
+          <t>30/11/2025 08:00</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ELOY DOUGLAS COSTA DA SILVA</t>
+          <t>JOAO ISAC PITZR FERREIRA</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>24/06/2023</t>
+          <t>25/07/2017</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -5001,7 +4308,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -5016,39 +4323,39 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>RJ - Magé</t>
+          <t>RJ - Paracambi</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>15/11/2025 10:00</t>
+          <t>30/11/2025 08:00</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>JOHN KEVEN PITZER DA SILVA</t>
+          <t>BERNARDO FLORES DA CUNHA DE MORAES</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>17/11/2021</t>
+          <t>30/03/2020</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -5056,7 +4363,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -5071,39 +4378,39 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>RJ - Magé</t>
+          <t>RJ - Paracambi</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>15/11/2025 10:00</t>
+          <t>08/12/2025 15:00</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>NICOLLAS DE SOUZA NOBREGA</t>
+          <t>HEITOR RAVI SILVERIO FELICIANO</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>26/11/2018</t>
+          <t>15/05/2020</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -5111,7 +4418,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -5126,39 +4433,39 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>RJ - Magé</t>
+          <t>RJ - Paracambi</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>15/11/2025 10:00</t>
+          <t>08/12/2025 15:00</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>MARCOS ANTONIO DA CONCEICAO ALVES</t>
+          <t>LORENZZO DOS SANTOS BRUZAO</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>24/08/2017</t>
+          <t>25/04/2017</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -5166,7 +4473,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -5181,39 +4488,39 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>RJ - Magé</t>
+          <t>RJ - Paracambi</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>15/11/2025 10:00</t>
+          <t>13/12/2025 09:00</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ELOY DOUGLAS COSTA DA SILVA</t>
+          <t>HEITOR RAVI SILVERIO FELICIANO</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>24/06/2023</t>
+          <t>15/05/2020</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -5221,7 +4528,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>R$ 6.772,46</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -5236,34 +4543,34 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>R$ 385,32</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>R$ 7.157,78</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>RJ - Magé</t>
+          <t>RJ - Paracambi</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>16/11/2025 08:00</t>
+          <t>13/12/2025 09:00</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>PALLOMA TOSTA DOS SANTOS SILVA</t>
+          <t>LORENZZO DOS SANTOS BRUZAO</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>31/05/2014</t>
+          <t>25/04/2017</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -5303,27 +4610,27 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>RJ - Magé</t>
+          <t>RJ - Queimados</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>16/11/2025 08:00</t>
+          <t>01/12/2025 09:00</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>JONAS MIGUEL BANNI DA SILVA JUNIOR</t>
+          <t>ANA DE OLIVEIRA NASCIMENTO</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>22/04/2017</t>
+          <t>12/05/2021</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -5331,7 +4638,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>R$ 6.514,54</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -5346,39 +4653,39 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>R$ 1.183,81</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>R$ 7.698,35</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>RJ - Magé</t>
+          <t>RJ - Queimados</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>16/11/2025 08:00</t>
+          <t>01/12/2025 09:00</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>NOAH BANNI LUGAO</t>
+          <t>ARTHUR PINHEIRO RESSURREICAO</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>04/10/2021</t>
+          <t>18/09/2015</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -5386,7 +4693,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>R$ 6.514,54</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -5401,39 +4708,39 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>R$ 1.183,81</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>R$ 7.698,35</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>RJ - Magé</t>
+          <t>RJ - Queimados</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>16/11/2025 10:00</t>
+          <t>01/12/2025 09:00</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>KAUA SILVA RANGEL</t>
+          <t>BENTO SOUZA PEREIRA</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>27/01/2020</t>
+          <t>01/12/2021</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -5441,7 +4748,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -5456,39 +4763,39 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Queimados</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>20/10/2025 15:00</t>
+          <t>01/12/2025 09:00</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ANA CAROLINA DA ROCHA MIRANDA</t>
+          <t>PIETRO COELHO DE AZEVEDO</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>19/01/2014</t>
+          <t>14/07/2019</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -5523,22 +4830,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Queimados</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>22/10/2025 10:00</t>
+          <t>03/12/2025 09:00</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>DERICK CESAR SANTOS RIBEIRO</t>
+          <t>PEDRO LUCCA BARBOSA RAMOS</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>06/12/2019</t>
+          <t>04/04/2022</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -5578,27 +4885,27 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Queimados</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>22/10/2025 10:00</t>
+          <t>08/12/2025 08:00</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>MIGUEL MIRANDA DOS SANTOS</t>
+          <t>ANA DE OLIVEIRA NASCIMENTO</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>17/12/2015</t>
+          <t>12/05/2021</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -5606,7 +4913,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 5.239,94</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -5621,39 +4928,39 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 610,06</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.850,00</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Queimados</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>22/10/2025 10:00</t>
+          <t>08/12/2025 08:00</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ASAFE COSTA RODRIGUES DE OLIVEIRA</t>
+          <t>BENTO SOUZA PEREIRA</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/12/2021</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -5661,7 +4968,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -5676,39 +4983,39 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - São João de Meriti</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>22/10/2025 10:00</t>
+          <t>08/12/2025 08:00</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>ENZO GABRIEL DOS SANTOS SILVA</t>
+          <t>GAEL SANTOS VARGAS</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>28/11/2016</t>
+          <t>29/06/2023</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -5716,7 +5023,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.772,46</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -5731,39 +5038,39 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 385,32</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.157,78</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - São João de Meriti</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>22/10/2025 10:00</t>
+          <t>08/12/2025 08:00</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>ENZO HENRIQUE RODRIGUES DOS SANTOS</t>
+          <t>GAEL SANTOS VARGAS</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>20/04/2019</t>
+          <t>29/06/2023</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -5771,7 +5078,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -5786,34 +5093,34 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>22/10/2025 15:00</t>
+          <t>24/11/2025 13:00</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>LETICIA CARNEIRO DE OLIVEIRA</t>
+          <t>ANNA CLARA DOS SANTOS GONCALVES</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>14/07/2014</t>
+          <t>27/04/2015</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -5853,22 +5160,22 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>22/10/2025 15:00</t>
+          <t>24/11/2025 13:00</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>LEONARDO DE BARROS BRAGA</t>
+          <t>CLARICE GUIMARAES KIFFER DE OLIVEIRA</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>25/07/2015</t>
+          <t>12/08/2015</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -5908,27 +5215,27 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>01/11/2025 09:00</t>
+          <t>24/11/2025 13:00</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>LORENZO LUIZ CUNHA LOPES</t>
+          <t>JOAO PEDRO ESPIRITO SANTO DA ROCHA</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>17/04/2022</t>
+          <t>11/03/2017</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -5963,27 +5270,27 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>01/11/2025 10:00</t>
+          <t>24/11/2025 13:00</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ENZO HENRIQUE RODRIGUES DOS SANTOS</t>
+          <t>TAYLER MATHEUS FERREIRA DOS SANTOS</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>20/04/2019</t>
+          <t>01/05/2014</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -5991,7 +5298,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -6006,39 +5313,39 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>01/11/2025 10:00</t>
+          <t>24/11/2025 13:00</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ENZO HENRIQUE RODRIGUES DOS SANTOS</t>
+          <t>EDUARDA CABRAL DOS SANTOS</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>20/04/2019</t>
+          <t>05/07/2018</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -6046,7 +5353,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>R$ 5.239,94</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -6061,39 +5368,39 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>R$ 610,06</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>R$ 5.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>12/11/2025 08:00</t>
+          <t>24/11/2025 13:00</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ANA CAROLINA DA ROCHA MIRANDA</t>
+          <t>RAFAELLA MARIA FRAGOSO FONTES DA SILVA MARTINS</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>19/01/2014</t>
+          <t>31/07/2022</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -6101,7 +5408,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>R$ 6.514,54</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -6116,39 +5423,39 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>R$ 1.183,81</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>R$ 7.698,35</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>15/11/2025 10:00</t>
+          <t>24/11/2025 13:00</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>LORENZO LUIZ CUNHA LOPES</t>
+          <t>ISAQUE GADIEL FERREIRA BARBOSA COSTA</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>17/04/2022</t>
+          <t>13/10/2019</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -6156,7 +5463,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>R$ 6.772,46</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -6171,39 +5478,39 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>R$ 385,32</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>R$ 7.157,78</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>17/11/2025 08:00</t>
+          <t>25/11/2025 16:00</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>MIGUEL MIRANDA DOS SANTOS</t>
+          <t>HECTOR FIGUEIREDO ALT</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>17/12/2015</t>
+          <t>16/08/2017</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -6211,7 +5518,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -6226,39 +5533,39 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>17/11/2025 08:00</t>
+          <t>06/12/2025 11:00</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>DERICK CESAR SANTOS RIBEIRO</t>
+          <t>RAFAELLA MARIA FRAGOSO FONTES DA SILVA MARTINS</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>06/12/2019</t>
+          <t>31/07/2022</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -6266,7 +5573,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -6281,39 +5588,39 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>17/11/2025 08:00</t>
+          <t>06/12/2025 11:00</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ASAFE COSTA RODRIGUES DE OLIVEIRA</t>
+          <t>CLARICE GUIMARAES KIFFER DE OLIVEIRA</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>12/08/2015</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -6321,7 +5628,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -6336,39 +5643,39 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>19/11/2025 10:00</t>
+          <t>07/12/2025 11:00</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>LEONARDO DE BARROS BRAGA</t>
+          <t>ANNA CLARA DOS SANTOS GONCALVES</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>25/07/2015</t>
+          <t>27/04/2015</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -6376,7 +5683,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>R$ 4.250,90</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -6391,39 +5698,39 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>R$ 1.079,10</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>R$ 5.330,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>19/11/2025 10:00</t>
+          <t>07/12/2025 11:00</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>LETICIA CARNEIRO DE OLIVEIRA</t>
+          <t>EDUARDA CABRAL DOS SANTOS</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>14/07/2014</t>
+          <t>05/07/2018</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -6431,7 +5738,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>R$ 4.250,90</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -6446,39 +5753,39 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>R$ 1.079,10</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>R$ 5.330,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>RJ - Nilópolis</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>22/10/2025 10:00</t>
+          <t>07/12/2025 11:00</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>ITALO GABRIEL PEREIRA DA SILVA</t>
+          <t>TAYLER MATHEUS FERREIRA DOS SANTOS</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>09/05/2017</t>
+          <t>01/05/2014</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -6486,7 +5793,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -6501,39 +5808,39 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>RJ - Nilópolis</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>03/11/2025 13:30</t>
+          <t>07/12/2025 11:00</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>LEVI MATUE DA SILVA SANTOS</t>
+          <t>JOAO PEDRO ESPIRITO SANTO DA ROCHA</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>25/07/2021</t>
+          <t>11/03/2017</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -6541,7 +5848,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.250,90</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -6556,39 +5863,39 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.079,10</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.330,00</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>RJ - Nilópolis</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>03/11/2025 13:30</t>
+          <t>07/12/2025 11:00</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>GAEL SANT ANNA CAMPOS DE JESUS</t>
+          <t>ISAQUE GADIEL FERREIRA BARBOSA COSTA</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>18/06/2020</t>
+          <t>13/10/2019</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -6596,7 +5903,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -6611,34 +5918,34 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>RJ - Nilópolis</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16/11/2025 10:00</t>
+          <t>13/12/2025 12:00</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>GAEL SANT ANNA CAMPOS DE JESUS</t>
+          <t>HECTOR FIGUEIREDO ALT</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>18/06/2020</t>
+          <t>16/08/2017</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -6672,1876 +5979,6 @@
       <c r="K74" t="inlineStr">
         <is>
           <t>R$ 4.850,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>RJ - Nilópolis</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>16/11/2025 10:00</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>LEVI MATUE DA SILVA SANTOS</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>25/07/2021</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F75" t="n">
-        <v>1</v>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>R$ 4.630,88</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>R$ 219,12</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>R$ 4.850,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>RJ - Nova Iguaçu</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>20/10/2025 15:00</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>BERNARDO AMARO TAVARES</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>09/11/2016</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
-        </is>
-      </c>
-      <c r="F76" t="n">
-        <v>1</v>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>RJ - Nova Iguaçu</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>20/10/2025 15:00</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>GUILHERME DA CRUZ DE OLIVEIRA</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>04/06/2012</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
-        </is>
-      </c>
-      <c r="F77" t="n">
-        <v>1</v>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>RJ - Nova Iguaçu</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>20/10/2025 15:00</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>MARIA CLARA MARQUES DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>24/03/2015</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
-        </is>
-      </c>
-      <c r="F78" t="n">
-        <v>1</v>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>RJ - Nova Iguaçu</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>22/10/2025 15:00</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>ANA JULIA COSTA DE SOUZA</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>17/08/2015</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
-        </is>
-      </c>
-      <c r="F79" t="n">
-        <v>1</v>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>RJ - Nova Iguaçu</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>22/10/2025 15:00</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>MIRELLA TELES DA SILVA</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>15/12/2015</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
-        </is>
-      </c>
-      <c r="F80" t="n">
-        <v>1</v>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>RJ - Nova Iguaçu</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>08/11/2025 10:00</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>BERNARDO AMARO TAVARES</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>09/11/2016</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F81" t="n">
-        <v>1</v>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>R$ 6.514,54</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>R$ 1.183,81</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>R$ 7.698,35</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>RJ - Nova Iguaçu</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>08/11/2025 10:00</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>MARIA CLARA MARQUES DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>24/03/2015</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F82" t="n">
-        <v>1</v>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>R$ 6.514,54</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>R$ 1.183,81</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>R$ 7.698,35</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>RJ - Nova Iguaçu</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>09/11/2025 10:00</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>MIRELLA TELES DA SILVA</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>15/12/2015</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>AMIGDALECTOMIA- PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F83" t="n">
-        <v>1</v>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>R$ 5.640,01</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>R$ 1.073,00</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>R$ 6.713,01</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>RJ - Nova Iguaçu</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>10/11/2025 10:00</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>ANA JULIA COSTA DE SOUZA</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>17/08/2015</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
-        </is>
-      </c>
-      <c r="F84" t="n">
-        <v>1</v>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>R$ 4.250,90</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>R$ 1.079,10</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>R$ 5.330,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>RJ - Nova Iguaçu</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>12/11/2025 08:00</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>GUILHERME DA CRUZ DE OLIVEIRA</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>04/06/2012</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F85" t="n">
-        <v>1</v>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>R$ 6.514,54</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>R$ 1.183,81</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>R$ 7.698,35</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>RJ - Paracambi</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>27/10/2025 15:00</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>JOAO ISAC PITZR FERREIRA</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>25/07/2017</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
-        </is>
-      </c>
-      <c r="F86" t="n">
-        <v>1</v>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>RJ - Queimados</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>22/10/2025 10:00</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>THEO HENRIQUE GAMA BRANDI</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>05/02/2019</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="F87" t="n">
-        <v>1</v>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>RJ - Queimados</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>22/10/2025 10:00</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>LUCAS EDURADO DA COSTA COELHO</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>03/07/2014</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="F88" t="n">
-        <v>1</v>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>RJ - Queimados</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>22/10/2025 10:00</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>MIRELY VITORIA GOMES MONSORES</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>22/11/2020</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="F89" t="n">
-        <v>1</v>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>RJ - Queimados</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>22/10/2025 10:00</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>THEO LUCAS DOS SANTOS NEPOMUCENO</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>25/01/2021</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="F90" t="n">
-        <v>1</v>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>RJ - Queimados</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>22/10/2025 10:00</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>BRYAN LUIS SILVA VITOR</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>08/04/2019</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="F91" t="n">
-        <v>1</v>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>RJ - Queimados</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>22/10/2025 10:00</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>MYGUEL BENICIO DA SILVA</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>17/02/2014</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="F92" t="n">
-        <v>1</v>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>RJ - Queimados</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>22/10/2025 10:00</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>MIGUEL ZYAN DOS SANTOS SILVA</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>05/04/2021</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="F93" t="n">
-        <v>1</v>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>RJ - Queimados</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>01/11/2025 10:00</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>THEO LUCAS DOS SANTOS NEPOMUCENO</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>25/01/2021</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F94" t="n">
-        <v>1</v>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>R$ 4.630,88</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>R$ 219,12</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>R$ 4.850,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>RJ - Queimados</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>01/11/2025 10:00</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>MIGUEL ZYAN DOS SANTOS SILVA</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>05/04/2021</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F95" t="n">
-        <v>1</v>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>R$ 5.239,94</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>R$ 610,06</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>R$ 5.850,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>RJ - Queimados</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>01/11/2025 10:00</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>MIGUEL ZYAN DOS SANTOS SILVA</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>05/04/2021</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F96" t="n">
-        <v>1</v>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>R$ 4.802,07</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>R$ 434,99</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>R$ 5.237,06</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>RJ - Queimados</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>01/11/2025 10:00</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>MIGUEL ZYAN DOS SANTOS SILVA</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>05/04/2021</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F97" t="n">
-        <v>1</v>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>R$ 4.630,88</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>R$ 219,12</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>R$ 4.850,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>RJ - Queimados</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>01/11/2025 10:00</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>MIRELY VITORIA GOMES MONSORES</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>22/11/2020</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F98" t="n">
-        <v>1</v>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>R$ 4.802,07</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>R$ 434,99</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>R$ 5.237,06</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>RJ - Queimados</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>01/11/2025 10:00</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>MYGUEL BENICIO DA SILVA</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>17/02/2014</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F99" t="n">
-        <v>1</v>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>R$ 4.630,88</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>R$ 219,12</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>R$ 4.850,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>RJ - São João de Meriti</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>22/10/2025 15:00</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>ENZO EMANUEL CEZAR SEIXAS DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>01/09/2018</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
-        </is>
-      </c>
-      <c r="F100" t="n">
-        <v>1</v>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>RJ - São João de Meriti</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>25/10/2025 10:00</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>ENZO EMANUEL CEZAR SEIXAS DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>01/09/2018</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F101" t="n">
-        <v>1</v>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>R$ 6.514,54</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>R$ 1.183,81</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>R$ 7.698,35</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>RJ - São João de Meriti</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>01/11/2025 09:00</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>CAIQUE MOTA DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>23/04/2018</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="F102" t="n">
-        <v>1</v>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>RJ - São João de Meriti</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>03/11/2025 13:30</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>GAEL SANTOS VARGAS</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>29/06/2023</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="F103" t="n">
-        <v>1</v>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>RJ - São João de Meriti</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>03/11/2025 13:30</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>ARTHUR SENA LAPROVITA LEMOS</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>13/08/2021</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="F104" t="n">
-        <v>1</v>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>RJ - São João de Meriti</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>08/11/2025 10:00</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>ARTHUR SENA LAPROVITA LEMOS</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>13/08/2021</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F105" t="n">
-        <v>1</v>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>R$ 6.772,46</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>R$ 385,32</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>R$ 7.157,78</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>RJ - São João de Meriti</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>15/11/2025 10:00</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>CAIQUE MOTA DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>23/04/2018</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F106" t="n">
-        <v>1</v>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>R$ 4.630,88</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>R$ 219,12</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>R$ 4.850,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>RJ - Seropédica</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>01/11/2025 09:00</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>ALLANA VALENTINA DE OLIVEIRA DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>04/04/2020</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="F107" t="n">
-        <v>1</v>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>RJ - Seropédica</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>15/11/2025 10:00</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>ALLANA VALENTINA DE OLIVEIRA DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>04/04/2020</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F108" t="n">
-        <v>1</v>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>R$ 4.802,07</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>R$ 434,99</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>

--- a/relatorios_simplificados/separarNeotin_SIMPLIFICADO.xlsx
+++ b/relatorios_simplificados/separarNeotin_SIMPLIFICADO.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD30"/>
+  <dimension ref="A1:AG17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,135 +452,150 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Paciente RJ - Japeri</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>RJ - Japeri</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Quantidade RJ - Japeri</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Paciente RJ - Paracambi</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>RJ - Paracambi</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Quantidade RJ - Paracambi</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Paciente RJ - Mesquita</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>RJ - Mesquita</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Quantidade RJ - Mesquita</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Paciente RJ - Queimados</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>RJ - Queimados</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Quantidade RJ - Queimados</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Paciente RJ - Magé</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>RJ - Magé</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Quantidade RJ - Magé</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>Paciente RJ - Nova Iguaçu</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Quantidade RJ - Nova Iguaçu</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Paciente RJ - Seropédica</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>RJ - Seropédica</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Quantidade RJ - Seropédica</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Paciente RJ - São João de Meriti</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>RJ - São João de Meriti</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Quantidade RJ - São João de Meriti</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Paciente RJ - Mesquita</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>RJ - Mesquita</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Quantidade RJ - Mesquita</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Paciente RJ - Magé</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>RJ - Magé</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Quantidade RJ - Magé</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Paciente RJ - Paracambi</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>RJ - Paracambi</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Quantidade RJ - Paracambi</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Paciente RJ - Seropédica</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>RJ - Seropédica</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Quantidade RJ - Seropédica</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Paciente RJ - Nilópolis</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>RJ - Nilópolis</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Quantidade RJ - Nilópolis</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Paciente RJ - Queimados</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>RJ - Queimados</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Quantidade RJ - Queimados</t>
-        </is>
-      </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
+          <t>Paciente RJ - Itaguaí</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>RJ - Itaguaí</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Quantidade RJ - Itaguaí</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
           <t>Paciente RJ - Belford Roxo</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>RJ - Belford Roxo</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Quantidade RJ - Belford Roxo</t>
         </is>
@@ -589,7 +604,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MARIA EDUARDA CAMILO GONCALVES MOTTA</t>
+          <t>BERNARDO BARBOSA DE JESUS</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -602,7 +617,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BERNARDO AMARO TAVARES</t>
+          <t>MALLU REIS NASCIMENTO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -615,12 +630,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ENZO EMANUEL CEZAR SEIXAS DOS SANTOS</t>
+          <t>BERNARDO FLORES DA CUNHA DE MORAES</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -628,7 +643,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>ANA CAROLINA DA ROCHA MIRANDA</t>
+          <t>CAIO BRAZ DOMINGOS MARTINS</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -641,87 +656,100 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>NOAH BANNI LUGAO</t>
+          <t>PEDRO LUCCA BARBOSA RAMOS</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>JOAO PEDRO ZAMPIROLLI GAMA</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>ISADORA SANTOS DE SOUSA</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>HECTOR FIGUEIREDO ALT</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="X2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>GAEL SANTOS VARGAS</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="AA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>MIGUEL DA SILVA ALMEIDA</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>JOAO ISAC PITZR FERREIRA</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
+      <c r="AD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>RICHARD SILVA DOS SANTOS AMANCIO</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
         <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
-      <c r="R2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>ALLANA VALENTINA DE OLIVEIRA DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>ITALO GABRIEL PEREIRA DA SILVA</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="X2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>MIRELY VITORIA GOMES MONSORES</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="AA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>MARIA VITORIA SANTOS DA SILVA</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
-        </is>
-      </c>
-      <c r="AD2" t="n">
+      <c r="AG2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GIOVANNA VITORIA SILVA LUCIANO</t>
+          <t>ESTELA SILVA DA COSTA</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -734,7 +762,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>GUILHERME DA CRUZ DE OLIVEIRA</t>
+          <t>DOUGLAS MORAES DOS REIS</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -747,103 +775,126 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>CAIQUE MOTA DOS SANTOS</t>
+          <t>BERNARDO FLORES DA CUNHA DE MORAES</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>LUIZ FERNANDO OLIVEIRA PRUDENTE</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>BENTO SOUZA PEREIRA</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>ANA CAROLINA DA ROCHA MIRANDA</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>JOAO PEDRO ZAMPIROLLI GAMA</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>KEROLLAYNE VITORIA DA COSTA SILVA</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>HECTOR FIGUEIREDO ALT</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="X3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>GAEL SANTOS VARGAS</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="AA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>MIGUEL DA SILVA ALMEIDA</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
         <is>
           <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>JONAS MIGUEL BANNI DA SILVA JUNIOR</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
-        </is>
-      </c>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>ALLANA VALENTINA DE OLIVEIRA DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="U3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>GAEL SANT ANNA CAMPOS DE JESUS</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="X3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>MIGUEL ZYAN DOS SANTOS SILVA</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="AA3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>MARIA HELOISA DE LIMA SOUZA</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
-        </is>
-      </c>
       <c r="AD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>RICHARD SILVA DOS SANTOS AMANCIO</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="AG3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SARAH MATTOSINHOS HARTMAN</t>
+          <t>MARIA JULIA MACEDO DOS SANTOS</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -856,7 +907,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MARIA CLARA MARQUES DOS SANTOS</t>
+          <t>VICTOR HUGO DA SILVA DE SOUZA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -869,12 +920,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>CAIQUE MOTA DOS SANTOS</t>
+          <t>JOAO ISAC PITZR FERREIRA</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -882,229 +933,255 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>LORENZO LUIZ CUNHA LOPES</t>
+          <t>CAIO BRAZ DOMINGOS MARTINS</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>ARTHUR PINHEIRO RESSURREICAO</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>PALLOMA TOSTA DOS SANTOS SILVA</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>JOAO PEDRO ZAMPIROLLI GAMA</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>ANGEL SOPHIA GONCALVES COUTO</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>CLARICE GUIMARAES KIFFER DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
         <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>LEVI MATUE DA SILVA SANTOS</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
       <c r="X4" t="n">
         <v>1</v>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>LUCAS EDURADO DA COSTA COELHO</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="AA4" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>YASMIN GABRIELLY VENTURA OLIVEIRA</t>
+          <t>KEMILLY FERNANDES LIRA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>AMIGDALECTOMIA- PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>MARINA LUISA SOARES AZEVEDO</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GUILHERME DA CRUZ DE OLIVEIRA</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>HEITOR RAVI SILVERIO FELICIANO</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>LUIZ FERNANDO OLIVEIRA PRUDENTE</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>ARTHUR SENA LAPROVITA LEMOS</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>ANA DE OLIVEIRA NASCIMENTO</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>LORENZO LUIZ CUNHA LOPES</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>NOAH BANNI LUGAO</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
       <c r="O5" t="n">
         <v>1</v>
       </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>PEROLA HELENA LOPES RICARDO</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>ISADORA SANTOS DE SOUSA</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>GAEL SANT ANNA CAMPOS DE JESUS</t>
+          <t>JOAO PEDRO ESPIRITO SANTO DA ROCHA</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="X5" t="n">
         <v>1</v>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>THEO LUCAS DOS SANTOS NEPOMUCENO</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="AA5" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GAEL RODRIGO MEDELA BARBOSA</t>
+          <t>ESTELA SILVA DA COSTA</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>MALLU REIS NASCIMENTO</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>LORENZZO DOS SANTOS BRUZAO</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>MARIA CLARA MARQUES DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>GAEL SANTOS VARGAS</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>DAVI LUIZ DE ALMEIDA PEREIRA</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>MIGUEL MIRANDA DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>PIETRO COELHO DE AZEVEDO</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>JONAS MIGUEL BANNI DA SILVA JUNIOR</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -1113,48 +1190,51 @@
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>ANGEL SOPHIA GONCALVES COUTO</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>LEVI MATUE DA SILVA SANTOS</t>
+          <t>RAFAELLA MARIA FRAGOSO FONTES DA SILVA MARTINS</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="X6" t="n">
         <v>1</v>
       </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>THEO HENRIQUE GAMA BRANDI</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="AA6" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PEDRO PAULO MIRANDA MANHAES</t>
+          <t>MARIA JULIA MACEDO DOS SANTOS</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -1162,7 +1242,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BERNARDO AMARO TAVARES</t>
+          <t>DOUGLAS MORAES DOS REIS</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1175,12 +1255,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>ARTHUR SENA LAPROVITA LEMOS</t>
+          <t>HEITOR RAVI SILVERIO FELICIANO</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -1188,12 +1268,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>DERICK CESAR SANTOS RIBEIRO</t>
+          <t>DAVI LUIZ DE ALMEIDA PEREIRA</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -1201,12 +1281,12 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>PALLOMA TOSTA DOS SANTOS SILVA</t>
+          <t>ANA DE OLIVEIRA NASCIMENTO</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="O7" t="n">
@@ -1218,35 +1298,38 @@
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>BRYAN LUIS SILVA VITOR</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="AA7" t="n">
-        <v>1</v>
-      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>ISAQUE GADIEL FERREIRA BARBOSA COSTA</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="X7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SARAH MATTOSINHOS HARTMAN</t>
+          <t>BERNARDO BARBOSA DE JESUS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AMIGDALECTOMIA- PEDIATRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -1254,12 +1337,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MIRELLA TELES DA SILVA</t>
+          <t>VICTOR HUGO DA SILVA DE SOUZA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>AMIGDALECTOMIA- PEDIATRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -1267,38 +1350,28 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>ENZO EMANUEL CEZAR SEIXAS DOS SANTOS</t>
+          <t>LORENZZO DOS SANTOS BRUZAO</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>ASAFE COSTA RODRIGUES DE OLIVEIRA</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>ELOY DOUGLAS COSTA DA SILVA</t>
+          <t>BENTO SOUZA PEREIRA</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="O8" t="n">
@@ -1310,30 +1383,33 @@
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>MIRELY VITORIA GOMES MONSORES</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="AA8" t="n">
-        <v>1</v>
-      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>TAYLER MATHEUS FERREIRA DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="X8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PEDRO PAULO MIRANDA MANHAES</t>
+          <t>NATHAN BAPTISTA DA SILVA ALVES</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1346,12 +1422,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>MIRELLA TELES DA SILVA</t>
+          <t>MARINA LUISA SOARES AZEVEDO</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -1360,67 +1436,50 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>ENZO GABRIEL DOS SANTOS SILVA</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>GABRIEL GRIMALDO DE SOUZA E OLIVEIRA</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>MIGUEL ZYAN DOS SANTOS SILVA</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="AA9" t="n">
-        <v>1</v>
-      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>ANNA CLARA DOS SANTOS GONCALVES</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="X9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>RUAN MIGUEL DA SILVA PINHEIRO</t>
+          <t>GIOVANNA VITORIA SILVA LUCIANO</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -1428,7 +1487,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ANA JULIA COSTA DE SOUZA</t>
+          <t>LAVINIA MACEDO DE OLIVEIRA</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1442,62 +1501,45 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>ENZO HENRIQUE RODRIGUES DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>MARCOS ANTONIO DA CONCEICAO ALVES</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>MYGUEL BENICIO DA SILVA</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="AA10" t="n">
-        <v>1</v>
-      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>EDUARDA CABRAL DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="X10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NATHAN BAPTISTA DA SILVA ALVES</t>
+          <t>KEMILLY FERNANDES LIRA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1510,12 +1552,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ANA JULIA COSTA DE SOUZA</t>
+          <t>LAVINIA MACEDO DE OLIVEIRA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1524,67 +1566,50 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>ENZO HENRIQUE RODRIGUES DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>NICOLLAS DE SOUZA NOBREGA</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>THEO LUCAS DOS SANTOS NEPOMUCENO</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="AA11" t="n">
-        <v>1</v>
-      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>CLARICE GUIMARAES KIFFER DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="X11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>YASMIN GABRIELLY VENTURA OLIVEIRA</t>
+          <t>MARIANA VIEIRA SOUZA</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
+          <t>AMIGDALECTOMIA- PEDIATRICO</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1596,67 +1621,50 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>MIGUEL MIRANDA DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>JOHN KEVEN PITZER DA SILVA</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>MYGUEL BENICIO DA SILVA</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="AA12" t="n">
-        <v>1</v>
-      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>TAYLER MATHEUS FERREIRA DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="X12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GAEL RODRIGO MEDELA BARBOSA</t>
+          <t>ALICE VIEIRA SOUZA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA- PEDIATRICO</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1668,921 +1676,220 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>DERICK CESAR SANTOS RIBEIRO</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>ABNER DA COSTA ABDALLA JACOB</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>MIGUEL ZYAN DOS SANTOS SILVA</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="AA13" t="n">
-        <v>1</v>
-      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>ANNA CLARA DOS SANTOS GONCALVES</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="X13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>MARIA EDUARDA CAMILO GONCALVES MOTTA</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>ASAFE COSTA RODRIGUES DE OLIVEIRA</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>ELOY DOUGLAS COSTA DA SILVA</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>MIGUEL ZYAN DOS SANTOS SILVA</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="AA14" t="n">
-        <v>1</v>
-      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>EDUARDA CABRAL DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="X14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>MIGUEL DA SILVA PRATA</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>ENZO HENRIQUE RODRIGUES DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>MARCOS ANTONIO DA CONCEICAO ALVES</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>ISAQUE GADIEL FERREIRA BARBOSA COSTA</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="X15" t="n">
+        <v>1</v>
+      </c>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>ALICE VIEIRA SOUZA</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>LETICIA CARNEIRO DE OLIVEIRA</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>NICOLLAS DE SOUZA NOBREGA</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>JOAO PEDRO ESPIRITO SANTO DA ROCHA</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
+        </is>
+      </c>
+      <c r="X16" t="n">
+        <v>1</v>
+      </c>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>MARIANA VIEIRA SOUZA</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>LEONARDO DE BARROS BRAGA</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>JOHN KEVEN PITZER DA SILVA</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>RAFAELLA MARIA FRAGOSO FONTES DA SILVA MARTINS</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="X17" t="n">
+        <v>1</v>
+      </c>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>HEYTOR DE ARAUJO DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>LETICIA CARNEIRO DE OLIVEIRA</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>ELOY DOUGLAS COSTA DA SILVA</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="O18" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>MIGUEL DA SILVA PRATA</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>LEONARDO DE BARROS BRAGA</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>GABRIEL GRIMALDO DE SOUZA E OLIVEIRA</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>HEYTOR DE ARAUJO DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>KAUA SILVA RANGEL</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="O20" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>RUAN MIGUEL DA SILVA PINHEIRO</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>GUILHERME DE ALMEIDA</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="O21" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>JOSE BENICIO TOLEDO</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="O22" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="inlineStr"/>
-      <c r="AC22" t="inlineStr"/>
-      <c r="AD22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>PEROLA HELENA LOPES RICARDO</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="O23" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
-      <c r="AB23" t="inlineStr"/>
-      <c r="AC23" t="inlineStr"/>
-      <c r="AD23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>KAUA SILVA RANGEL</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="O24" t="n">
-        <v>1</v>
-      </c>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="inlineStr"/>
-      <c r="AD24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>DAVI RIBEIRO MONTUAN</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
-        </is>
-      </c>
-      <c r="O25" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="inlineStr"/>
-      <c r="AC25" t="inlineStr"/>
-      <c r="AD25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>NOAH DE SOUZA ALMEIDA</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
-        </is>
-      </c>
-      <c r="O26" t="n">
-        <v>1</v>
-      </c>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="inlineStr"/>
-      <c r="AD26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>JULIA EGGER MOREIRA DE CASTRO</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
-        </is>
-      </c>
-      <c r="O27" t="n">
-        <v>1</v>
-      </c>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>DAVI RIBEIRO MONTUAN</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="O28" t="n">
-        <v>1</v>
-      </c>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>JULIA EGGER MOREIRA DE CASTRO</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="O29" t="n">
-        <v>1</v>
-      </c>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>NOAH DE SOUZA ALMEIDA</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="O30" t="n">
-        <v>1</v>
-      </c>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
-      <c r="AD30" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2595,7 +1902,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K108"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2668,17 +1975,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20/10/2025 15:00</t>
+          <t>24/11/2025 15:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MARIA EDUARDA CAMILO GONCALVES MOTTA</t>
+          <t>BERNARDO BARBOSA DE JESUS</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25/05/2017</t>
+          <t>16/11/2014</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -2723,17 +2030,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>20/10/2025 15:00</t>
+          <t>24/11/2025 15:00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GIOVANNA VITORIA SILVA LUCIANO</t>
+          <t>ESTELA SILVA DA COSTA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19/02/2019</t>
+          <t>27/02/2022</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -2778,17 +2085,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>20/10/2025 15:00</t>
+          <t>24/11/2025 15:00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SARAH MATTOSINHOS HARTMAN</t>
+          <t>MARIA JULIA MACEDO DOS SANTOS</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10/02/2022</t>
+          <t>02/09/2020</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -2833,22 +2140,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>20/10/2025 15:00</t>
+          <t>30/11/2025 08:00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>YASMIN GABRIELLY VENTURA OLIVEIRA</t>
+          <t>KEMILLY FERNANDES LIRA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12/02/2015</t>
+          <t>01/05/2019</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+          <t>AMIGDALECTOMIA- PEDIATRICO</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -2856,7 +2163,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 5.640,01</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -2871,12 +2178,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.073,00</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 6.713,01</t>
         </is>
       </c>
     </row>
@@ -2888,22 +2195,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>20/10/2025 15:00</t>
+          <t>30/11/2025 08:00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>GAEL RODRIGO MEDELA BARBOSA</t>
+          <t>ESTELA SILVA DA COSTA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>28/11/2019</t>
+          <t>27/02/2022</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -2911,7 +2218,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2926,12 +2233,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
@@ -2943,22 +2250,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>20/10/2025 15:00</t>
+          <t>30/11/2025 08:00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PEDRO PAULO MIRANDA MANHAES</t>
+          <t>MARIA JULIA MACEDO DOS SANTOS</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>30/04/2022</t>
+          <t>02/09/2020</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -2966,7 +2273,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2981,12 +2288,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
@@ -2998,22 +2305,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>25/10/2025 10:00</t>
+          <t>03/12/2025 08:00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SARAH MATTOSINHOS HARTMAN</t>
+          <t>BERNARDO BARBOSA DE JESUS</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10/02/2022</t>
+          <t>16/11/2014</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>AMIGDALECTOMIA- PEDIATRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -3021,7 +2328,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>R$ 5.640,01</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -3036,12 +2343,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>R$ 1.073,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>R$ 6.713,01</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
@@ -3053,17 +2360,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>08/11/2025 10:00</t>
+          <t>30/11/2025 08:00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PEDRO PAULO MIRANDA MANHAES</t>
+          <t>NATHAN BAPTISTA DA SILVA ALVES</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>30/04/2022</t>
+          <t>12/04/2022</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -3108,22 +2415,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>20/10/2025 15:00</t>
+          <t>30/11/2025 08:00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>RUAN MIGUEL DA SILVA PINHEIRO</t>
+          <t>GIOVANNA VITORIA SILVA LUCIANO</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>14/04/2016</t>
+          <t>19/02/2019</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -3131,7 +2438,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -3146,12 +2453,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
@@ -3163,17 +2470,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>20/10/2025 15:00</t>
+          <t>24/11/2025 13:00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NATHAN BAPTISTA DA SILVA ALVES</t>
+          <t>KEMILLY FERNANDES LIRA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>12/04/2022</t>
+          <t>01/05/2019</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -3218,22 +2525,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>25/10/2025 10:00</t>
+          <t>06/12/2025 08:00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>YASMIN GABRIELLY VENTURA OLIVEIRA</t>
+          <t>MARIANA VIEIRA SOUZA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>12/02/2015</t>
+          <t>18/03/2019</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
+          <t>AMIGDALECTOMIA- PEDIATRICO</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -3241,7 +2548,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>R$ 4.250,90</t>
+          <t>R$ 5.640,01</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -3256,12 +2563,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>R$ 1.079,10</t>
+          <t>R$ 1.073,00</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>R$ 5.330,00</t>
+          <t>R$ 6.713,01</t>
         </is>
       </c>
     </row>
@@ -3273,22 +2580,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>25/10/2025 10:00</t>
+          <t>06/12/2025 08:00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>GAEL RODRIGO MEDELA BARBOSA</t>
+          <t>ALICE VIEIRA SOUZA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>28/11/2019</t>
+          <t>18/03/2019</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA- PEDIATRICO</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -3296,7 +2603,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>R$ 6.514,54</t>
+          <t>R$ 5.640,01</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -3311,39 +2618,39 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>R$ 1.183,81</t>
+          <t>R$ 1.073,00</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>R$ 7.698,35</t>
+          <t>R$ 6.713,01</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>RJ - Duque de Caxias</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>12/11/2025 10:00</t>
+          <t>24/11/2025 15:00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MARIA EDUARDA CAMILO GONCALVES MOTTA</t>
+          <t>MALLU REIS NASCIMENTO</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>25/05/2017</t>
+          <t>22/03/2021</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -3351,7 +2658,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>R$ 6.514,54</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -3366,34 +2673,34 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>R$ 1.183,81</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>R$ 7.698,35</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RJ - Duque de Caxias</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>22/10/2025 15:00</t>
+          <t>24/11/2025 15:00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MIGUEL DA SILVA PRATA</t>
+          <t>DOUGLAS MORAES DOS REIS</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>07/12/2016</t>
+          <t>11/06/2020</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3433,22 +2740,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>RJ - Duque de Caxias</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>22/10/2025 15:00</t>
+          <t>24/11/2025 15:00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ALICE VIEIRA SOUZA</t>
+          <t>VICTOR HUGO DA SILVA DE SOUZA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>18/03/2019</t>
+          <t>13/07/2020</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -3488,22 +2795,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>RJ - Duque de Caxias</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>22/10/2025 15:00</t>
+          <t>24/11/2025 15:00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MARIANA VIEIRA SOUZA</t>
+          <t>MARINA LUISA SOARES AZEVEDO</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>18/03/2019</t>
+          <t>10/03/2018</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -3543,27 +2850,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>RJ - Duque de Caxias</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>22/10/2025 15:00</t>
+          <t>06/12/2025 08:00</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HEYTOR DE ARAUJO DOS SANTOS</t>
+          <t>MALLU REIS NASCIMENTO</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>10/10/2021</t>
+          <t>22/03/2021</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -3571,7 +2878,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -3586,34 +2893,34 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>RJ - Duque de Caxias</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>05/11/2025 11:00</t>
+          <t>06/12/2025 08:00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MIGUEL DA SILVA PRATA</t>
+          <t>DOUGLAS MORAES DOS REIS</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>07/12/2016</t>
+          <t>11/06/2020</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -3653,27 +2960,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>RJ - Duque de Caxias</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>10/11/2025 10:00</t>
+          <t>06/12/2025 08:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>HEYTOR DE ARAUJO DOS SANTOS</t>
+          <t>VICTOR HUGO DA SILVA DE SOUZA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>10/10/2021</t>
+          <t>13/07/2020</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -3681,7 +2988,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>R$ 4.250,90</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -3696,39 +3003,39 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>R$ 1.079,10</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>R$ 5.330,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>RJ - Duque de Caxias</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>19/11/2025 10:00</t>
+          <t>06/12/2025 08:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>RUAN MIGUEL DA SILVA PINHEIRO</t>
+          <t>MARINA LUISA SOARES AZEVEDO</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>14/04/2016</t>
+          <t>10/03/2018</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -3736,7 +3043,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>R$ 6.514,54</t>
+          <t>R$ 4.250,90</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -3751,34 +3058,34 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>R$ 1.183,81</t>
+          <t>R$ 1.079,10</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>R$ 7.698,35</t>
+          <t>R$ 5.330,00</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>20/10/2025 15:00</t>
+          <t>08/12/2025 15:00</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BERNARDO AMARO TAVARES</t>
+          <t>LAVINIA MACEDO DE OLIVEIRA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>09/11/2016</t>
+          <t>10/02/2017</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -3818,27 +3125,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Japeri</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>20/10/2025 15:00</t>
+          <t>13/12/2025 09:00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>GUILHERME DA CRUZ DE OLIVEIRA</t>
+          <t>LAVINIA MACEDO DE OLIVEIRA</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>04/06/2012</t>
+          <t>10/02/2017</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -3846,7 +3153,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -3861,34 +3168,34 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Paracambi</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>20/10/2025 15:00</t>
+          <t>24/11/2025 15:00</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>MARIA CLARA MARQUES DOS SANTOS</t>
+          <t>BERNARDO FLORES DA CUNHA DE MORAES</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>24/03/2015</t>
+          <t>30/03/2020</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -3928,22 +3235,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Paracambi</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>12/11/2025 08:00</t>
+          <t>30/11/2025 08:00</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>GUILHERME DA CRUZ DE OLIVEIRA</t>
+          <t>BERNARDO FLORES DA CUNHA DE MORAES</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>04/06/2012</t>
+          <t>30/03/2020</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -3983,22 +3290,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Paracambi</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>08/11/2025 10:00</t>
+          <t>30/11/2025 08:00</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MARIA CLARA MARQUES DOS SANTOS</t>
+          <t>JOAO ISAC PITZR FERREIRA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>24/03/2015</t>
+          <t>25/07/2017</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -4038,27 +3345,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Paracambi</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>08/11/2025 10:00</t>
+          <t>08/12/2025 15:00</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>BERNARDO AMARO TAVARES</t>
+          <t>HEITOR RAVI SILVERIO FELICIANO</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>09/11/2016</t>
+          <t>15/05/2020</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -4066,7 +3373,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>R$ 6.514,54</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -4081,39 +3388,39 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>R$ 1.183,81</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>R$ 7.698,35</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Paracambi</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>09/11/2025 10:00</t>
+          <t>08/12/2025 15:00</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>MIRELLA TELES DA SILVA</t>
+          <t>LORENZZO DOS SANTOS BRUZAO</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>15/12/2015</t>
+          <t>25/04/2017</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>AMIGDALECTOMIA- PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -4121,7 +3428,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>R$ 5.640,01</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -4136,39 +3443,39 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>R$ 1.073,00</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>R$ 6.713,01</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Paracambi</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>22/10/2025 15:00</t>
+          <t>13/12/2025 09:00</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>MIRELLA TELES DA SILVA</t>
+          <t>HEITOR RAVI SILVERIO FELICIANO</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>15/12/2015</t>
+          <t>15/05/2020</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -4176,7 +3483,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -4191,39 +3498,39 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Paracambi</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>22/10/2025 15:00</t>
+          <t>13/12/2025 09:00</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ANA JULIA COSTA DE SOUZA</t>
+          <t>LORENZZO DOS SANTOS BRUZAO</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>17/08/2015</t>
+          <t>25/04/2017</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -4231,7 +3538,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -4246,39 +3553,39 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>10/11/2025 10:00</t>
+          <t>08/12/2025 15:00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ANA JULIA COSTA DE SOUZA</t>
+          <t>CAIO BRAZ DOMINGOS MARTINS</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>17/08/2015</t>
+          <t>01/08/2018</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -4286,7 +3593,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>R$ 4.250,90</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -4301,39 +3608,39 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>R$ 1.079,10</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>R$ 5.330,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>25/10/2025 10:00</t>
+          <t>08/12/2025 15:00</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ENZO EMANUEL CEZAR SEIXAS DOS SANTOS</t>
+          <t>LUIZ FERNANDO OLIVEIRA PRUDENTE</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>01/09/2018</t>
+          <t>10/12/2015</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -4341,7 +3648,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>R$ 6.514,54</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -4356,39 +3663,39 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>R$ 1.183,81</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>R$ 7.698,35</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>01/11/2025 09:00</t>
+          <t>13/12/2025 09:00</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CAIQUE MOTA DOS SANTOS</t>
+          <t>CAIO BRAZ DOMINGOS MARTINS</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>23/04/2018</t>
+          <t>01/08/2018</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -4396,7 +3703,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -4411,39 +3718,39 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>15/11/2025 10:00</t>
+          <t>13/12/2025 09:00</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CAIQUE MOTA DOS SANTOS</t>
+          <t>LUIZ FERNANDO OLIVEIRA PRUDENTE</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>23/04/2018</t>
+          <t>10/12/2015</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -4451,7 +3758,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -4466,34 +3773,34 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>03/11/2025 13:30</t>
+          <t>01/12/2025 09:00</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ARTHUR SENA LAPROVITA LEMOS</t>
+          <t>DAVI LUIZ DE ALMEIDA PEREIRA</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>13/08/2021</t>
+          <t>23/04/2021</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -4533,27 +3840,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Mesquita</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>03/11/2025 13:30</t>
+          <t>08/12/2025 08:00</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>GAEL SANTOS VARGAS</t>
+          <t>DAVI LUIZ DE ALMEIDA PEREIRA</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>29/06/2023</t>
+          <t>23/04/2021</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -4561,7 +3868,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.802,07</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -4576,39 +3883,39 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 434,99</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Queimados</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>08/11/2025 10:00</t>
+          <t>03/12/2025 09:00</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ARTHUR SENA LAPROVITA LEMOS</t>
+          <t>PEDRO LUCCA BARBOSA RAMOS</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>13/08/2021</t>
+          <t>04/04/2022</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -4616,7 +3923,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>R$ 6.772,46</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -4631,39 +3938,39 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>R$ 385,32</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>R$ 7.157,78</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>RJ - São João de Meriti</t>
+          <t>RJ - Queimados</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>22/10/2025 15:00</t>
+          <t>01/12/2025 09:00</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ENZO EMANUEL CEZAR SEIXAS DOS SANTOS</t>
+          <t>BENTO SOUZA PEREIRA</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>01/09/2018</t>
+          <t>01/12/2021</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -4698,27 +4005,27 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Queimados</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>20/10/2025 15:00</t>
+          <t>01/12/2025 09:00</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ANA CAROLINA DA ROCHA MIRANDA</t>
+          <t>ARTHUR PINHEIRO RESSURREICAO</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>19/01/2014</t>
+          <t>18/09/2015</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -4753,27 +4060,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Queimados</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>12/11/2025 08:00</t>
+          <t>01/12/2025 09:00</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ANA CAROLINA DA ROCHA MIRANDA</t>
+          <t>ANA DE OLIVEIRA NASCIMENTO</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>19/01/2014</t>
+          <t>12/05/2021</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -4781,7 +4088,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>R$ 6.514,54</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -4796,34 +4103,34 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>R$ 1.183,81</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>R$ 7.698,35</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Queimados</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>01/11/2025 09:00</t>
+          <t>01/12/2025 09:00</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>LORENZO LUIZ CUNHA LOPES</t>
+          <t>PIETRO COELHO DE AZEVEDO</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>17/04/2022</t>
+          <t>14/07/2019</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -4863,27 +4170,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Queimados</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>15/11/2025 10:00</t>
+          <t>08/12/2025 08:00</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>LORENZO LUIZ CUNHA LOPES</t>
+          <t>ANA DE OLIVEIRA NASCIMENTO</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>17/04/2022</t>
+          <t>12/05/2021</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -4891,7 +4198,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>R$ 6.772,46</t>
+          <t>R$ 5.239,94</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -4906,39 +4213,39 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>R$ 385,32</t>
+          <t>R$ 610,06</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>R$ 7.157,78</t>
+          <t>R$ 5.850,00</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Queimados</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>22/10/2025 10:00</t>
+          <t>08/12/2025 08:00</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>MIGUEL MIRANDA DOS SANTOS</t>
+          <t>BENTO SOUZA PEREIRA</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>17/12/2015</t>
+          <t>01/12/2021</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -4946,7 +4253,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -4961,34 +4268,34 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>22/10/2025 10:00</t>
+          <t>03/12/2025 09:00</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>DERICK CESAR SANTOS RIBEIRO</t>
+          <t>JOAO PEDRO ZAMPIROLLI GAMA</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>06/12/2019</t>
+          <t>14/05/2019</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -5028,27 +4335,27 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>22/10/2025 10:00</t>
+          <t>06/12/2025 08:00</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ASAFE COSTA RODRIGUES DE OLIVEIRA</t>
+          <t>JOAO PEDRO ZAMPIROLLI GAMA</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>14/05/2019</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -5056,7 +4363,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -5071,39 +4378,39 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>22/10/2025 10:00</t>
+          <t>06/12/2025 08:00</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ENZO GABRIEL DOS SANTOS SILVA</t>
+          <t>JOAO PEDRO ZAMPIROLLI GAMA</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>28/11/2016</t>
+          <t>14/05/2019</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -5111,7 +4418,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.802,07</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -5126,39 +4433,39 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 434,99</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>22/10/2025 10:00</t>
+          <t>08/12/2025 08:00</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ENZO HENRIQUE RODRIGUES DOS SANTOS</t>
+          <t>PEROLA HELENA LOPES RICARDO</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>20/04/2019</t>
+          <t>03/05/2022</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -5166,7 +4473,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.802,07</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -5181,39 +4488,39 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 434,99</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>01/11/2025 10:00</t>
+          <t>03/12/2025 09:00</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ENZO HENRIQUE RODRIGUES DOS SANTOS</t>
+          <t>ISADORA SANTOS DE SOUSA</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>20/04/2019</t>
+          <t>07/05/2019</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -5221,7 +4528,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -5236,39 +4543,39 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>17/11/2025 08:00</t>
+          <t>03/12/2025 09:00</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>MIGUEL MIRANDA DOS SANTOS</t>
+          <t>KEROLLAYNE VITORIA DA COSTA SILVA</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>17/12/2015</t>
+          <t>12/12/2014</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -5276,7 +4583,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -5291,39 +4598,39 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>17/11/2025 08:00</t>
+          <t>03/12/2025 09:00</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>DERICK CESAR SANTOS RIBEIRO</t>
+          <t>ANGEL SOPHIA GONCALVES COUTO</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>06/12/2019</t>
+          <t>11/07/2021</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -5331,7 +4638,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -5346,39 +4653,39 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>17/11/2025 08:00</t>
+          <t>06/12/2025 08:00</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ASAFE COSTA RODRIGUES DE OLIVEIRA</t>
+          <t>ISADORA SANTOS DE SOUSA</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>07/05/2019</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -5386,7 +4693,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 4.802,07</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -5401,34 +4708,34 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 434,99</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>01/11/2025 10:00</t>
+          <t>06/12/2025 08:00</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ENZO HENRIQUE RODRIGUES DOS SANTOS</t>
+          <t>ANGEL SOPHIA GONCALVES COUTO</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>20/04/2019</t>
+          <t>11/07/2021</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -5468,27 +4775,27 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>22/10/2025 15:00</t>
+          <t>25/11/2025 16:00</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>LETICIA CARNEIRO DE OLIVEIRA</t>
+          <t>HECTOR FIGUEIREDO ALT</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>14/07/2014</t>
+          <t>16/08/2017</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -5523,27 +4830,27 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>22/10/2025 15:00</t>
+          <t>13/12/2025 12:00</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>LEONARDO DE BARROS BRAGA</t>
+          <t>HECTOR FIGUEIREDO ALT</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>25/07/2015</t>
+          <t>16/08/2017</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -5551,7 +4858,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -5566,39 +4873,39 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>19/11/2025 10:00</t>
+          <t>24/11/2025 13:00</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>LETICIA CARNEIRO DE OLIVEIRA</t>
+          <t>CLARICE GUIMARAES KIFFER DE OLIVEIRA</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>14/07/2014</t>
+          <t>12/08/2015</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -5606,7 +4913,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>R$ 4.250,90</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -5621,39 +4928,39 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>R$ 1.079,10</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>R$ 5.330,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>RJ - Mesquita</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>19/11/2025 10:00</t>
+          <t>24/11/2025 13:00</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>LEONARDO DE BARROS BRAGA</t>
+          <t>JOAO PEDRO ESPIRITO SANTO DA ROCHA</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>25/07/2015</t>
+          <t>11/03/2017</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -5661,7 +4968,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>R$ 4.250,90</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -5676,34 +4983,34 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>R$ 1.079,10</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>R$ 5.330,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>RJ - Magé</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>27/10/2025 15:00</t>
+          <t>24/11/2025 13:00</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>NOAH BANNI LUGAO</t>
+          <t>RAFAELLA MARIA FRAGOSO FONTES DA SILVA MARTINS</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>04/10/2021</t>
+          <t>31/07/2022</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -5743,22 +5050,22 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>RJ - Magé</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>27/10/2025 15:00</t>
+          <t>24/11/2025 13:00</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>JONAS MIGUEL BANNI DA SILVA JUNIOR</t>
+          <t>ISAQUE GADIEL FERREIRA BARBOSA COSTA</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>22/04/2017</t>
+          <t>13/10/2019</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -5798,22 +5105,22 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>RJ - Magé</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>27/10/2025 15:00</t>
+          <t>24/11/2025 13:00</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>PALLOMA TOSTA DOS SANTOS SILVA</t>
+          <t>TAYLER MATHEUS FERREIRA DOS SANTOS</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>31/05/2014</t>
+          <t>01/05/2014</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -5853,27 +5160,27 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>RJ - Magé</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>16/11/2025 08:00</t>
+          <t>24/11/2025 13:00</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>NOAH BANNI LUGAO</t>
+          <t>ANNA CLARA DOS SANTOS GONCALVES</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>04/10/2021</t>
+          <t>27/04/2015</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -5881,7 +5188,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>R$ 6.514,54</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -5896,39 +5203,39 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>R$ 1.183,81</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>R$ 7.698,35</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>RJ - Magé</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>16/11/2025 08:00</t>
+          <t>24/11/2025 13:00</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>JONAS MIGUEL BANNI DA SILVA JUNIOR</t>
+          <t>EDUARDA CABRAL DOS SANTOS</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>22/04/2017</t>
+          <t>05/07/2018</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -5936,7 +5243,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>R$ 6.514,54</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -5951,34 +5258,34 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>R$ 1.183,81</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>R$ 7.698,35</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>RJ - Magé</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>16/11/2025 08:00</t>
+          <t>06/12/2025 11:00</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>PALLOMA TOSTA DOS SANTOS SILVA</t>
+          <t>CLARICE GUIMARAES KIFFER DE OLIVEIRA</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>31/05/2014</t>
+          <t>12/08/2015</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -6018,27 +5325,27 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>RJ - Magé</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>01/11/2025 09:00</t>
+          <t>07/12/2025 11:00</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ELOY DOUGLAS COSTA DA SILVA</t>
+          <t>TAYLER MATHEUS FERREIRA DOS SANTOS</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>24/06/2023</t>
+          <t>01/05/2014</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -6046,7 +5353,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -6061,39 +5368,39 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>RJ - Magé</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>01/11/2025 09:00</t>
+          <t>07/12/2025 11:00</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>GABRIEL GRIMALDO DE SOUZA E OLIVEIRA</t>
+          <t>ANNA CLARA DOS SANTOS GONCALVES</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>25/10/2016</t>
+          <t>27/04/2015</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -6101,7 +5408,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -6116,39 +5423,39 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>RJ - Magé</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>01/11/2025 09:00</t>
+          <t>07/12/2025 11:00</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>MARCOS ANTONIO DA CONCEICAO ALVES</t>
+          <t>EDUARDA CABRAL DOS SANTOS</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>24/08/2017</t>
+          <t>05/07/2018</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -6156,7 +5463,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -6171,39 +5478,39 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>RJ - Magé</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>01/11/2025 09:00</t>
+          <t>07/12/2025 11:00</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>NICOLLAS DE SOUZA NOBREGA</t>
+          <t>ISAQUE GADIEL FERREIRA BARBOSA COSTA</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>26/11/2018</t>
+          <t>13/10/2019</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -6211,7 +5518,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -6226,39 +5533,39 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>RJ - Magé</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>01/11/2025 09:00</t>
+          <t>07/12/2025 11:00</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>JOHN KEVEN PITZER DA SILVA</t>
+          <t>JOAO PEDRO ESPIRITO SANTO DA ROCHA</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>17/11/2021</t>
+          <t>11/03/2017</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -6266,7 +5573,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.250,90</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -6281,39 +5588,39 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.079,10</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 5.330,00</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>RJ - Magé</t>
+          <t>RJ - Seropédica</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>01/11/2025 09:00</t>
+          <t>06/12/2025 11:00</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ABNER DA COSTA ABDALLA JACOB</t>
+          <t>RAFAELLA MARIA FRAGOSO FONTES DA SILVA MARTINS</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>19/08/2014</t>
+          <t>31/07/2022</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -6321,7 +5628,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -6336,34 +5643,34 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>RJ - Magé</t>
+          <t>RJ - São João de Meriti</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>15/11/2025 10:00</t>
+          <t>08/12/2025 08:00</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ELOY DOUGLAS COSTA DA SILVA</t>
+          <t>GAEL SANTOS VARGAS</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>24/06/2023</t>
+          <t>29/06/2023</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -6403,27 +5710,27 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>RJ - Magé</t>
+          <t>RJ - São João de Meriti</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>15/11/2025 10:00</t>
+          <t>08/12/2025 08:00</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>MARCOS ANTONIO DA CONCEICAO ALVES</t>
+          <t>GAEL SANTOS VARGAS</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>24/08/2017</t>
+          <t>29/06/2023</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -6431,7 +5738,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 6.772,46</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -6446,39 +5753,39 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 385,32</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 7.157,78</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>RJ - Magé</t>
+          <t>RJ - Itaguaí</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>15/11/2025 10:00</t>
+          <t>24/11/2025 13:00</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>NICOLLAS DE SOUZA NOBREGA</t>
+          <t>MIGUEL DA SILVA ALMEIDA</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>26/11/2018</t>
+          <t>28/05/2016</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -6486,7 +5793,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -6501,39 +5808,39 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>RJ - Magé</t>
+          <t>RJ - Itaguaí</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>15/11/2025 10:00</t>
+          <t>06/12/2025 11:00</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>JOHN KEVEN PITZER DA SILVA</t>
+          <t>MIGUEL DA SILVA ALMEIDA</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>17/11/2021</t>
+          <t>28/05/2016</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -6541,7 +5848,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -6556,39 +5863,39 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>RJ - Magé</t>
+          <t>RJ - Belford Roxo</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>15/11/2025 10:00</t>
+          <t>24/11/2025 13:00</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>ELOY DOUGLAS COSTA DA SILVA</t>
+          <t>RICHARD SILVA DOS SANTOS AMANCIO</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>24/06/2023</t>
+          <t>14/01/2020</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -6596,7 +5903,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>R$ 6.772,46</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -6611,39 +5918,39 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>R$ 385,32</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>R$ 7.157,78</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>RJ - Magé</t>
+          <t>RJ - Belford Roxo</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>15/11/2025 10:00</t>
+          <t>06/12/2025 11:00</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>GABRIEL GRIMALDO DE SOUZA E OLIVEIRA</t>
+          <t>RICHARD SILVA DOS SANTOS AMANCIO</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>25/10/2016</t>
+          <t>14/01/2020</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -6651,7 +5958,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -6666,1882 +5973,12 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>RJ - Magé</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>03/11/2025 13:30</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>KAUA SILVA RANGEL</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>27/01/2020</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="F75" t="n">
-        <v>1</v>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>RJ - Magé</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>03/11/2025 13:30</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>GUILHERME DE ALMEIDA</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>24/12/2017</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="F76" t="n">
-        <v>1</v>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>RJ - Magé</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>03/11/2025 13:30</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>JOSE BENICIO TOLEDO</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>09/07/2024</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="F77" t="n">
-        <v>1</v>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>RJ - Magé</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>03/11/2025 13:30</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>PEROLA HELENA LOPES RICARDO</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>03/05/2022</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="F78" t="n">
-        <v>1</v>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>RJ - Magé</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>16/11/2025 10:00</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>KAUA SILVA RANGEL</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>27/01/2020</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F79" t="n">
-        <v>1</v>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>R$ 4.630,88</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>R$ 219,12</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>R$ 4.850,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>RJ - Magé</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>22/10/2025 15:00</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>DAVI RIBEIRO MONTUAN</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>20/01/2016</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
-        </is>
-      </c>
-      <c r="F80" t="n">
-        <v>1</v>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>RJ - Magé</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>22/10/2025 15:00</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>NOAH DE SOUZA ALMEIDA</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>21/06/2019</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
-        </is>
-      </c>
-      <c r="F81" t="n">
-        <v>1</v>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>RJ - Magé</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>22/10/2025 15:00</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>JULIA EGGER MOREIRA DE CASTRO</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>15/09/2013</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
-        </is>
-      </c>
-      <c r="F82" t="n">
-        <v>1</v>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>RJ - Magé</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>05/11/2025 10:00</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>DAVI RIBEIRO MONTUAN</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>20/01/2016</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F83" t="n">
-        <v>1</v>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>R$ 6.514,54</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>R$ 1.183,81</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
           <t>R$ 7.698,35</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>RJ - Magé</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>05/11/2025 10:00</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>JULIA EGGER MOREIRA DE CASTRO</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>15/09/2013</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F84" t="n">
-        <v>1</v>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>R$ 6.514,54</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>R$ 1.183,81</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>R$ 7.698,35</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>RJ - Magé</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>08/11/2025 10:00</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>NOAH DE SOUZA ALMEIDA</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>21/06/2019</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F85" t="n">
-        <v>1</v>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>R$ 6.514,54</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>R$ 1.183,81</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>R$ 7.698,35</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>RJ - Paracambi</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>27/10/2025 15:00</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>JOAO ISAC PITZR FERREIRA</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>25/07/2017</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
-        </is>
-      </c>
-      <c r="F86" t="n">
-        <v>1</v>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>RJ - Seropédica</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>01/11/2025 09:00</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>ALLANA VALENTINA DE OLIVEIRA DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>04/04/2020</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="F87" t="n">
-        <v>1</v>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>RJ - Seropédica</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>15/11/2025 10:00</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>ALLANA VALENTINA DE OLIVEIRA DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>04/04/2020</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F88" t="n">
-        <v>1</v>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>R$ 4.802,07</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>R$ 434,99</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>R$ 5.237,06</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>RJ - Nilópolis</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>22/10/2025 10:00</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>ITALO GABRIEL PEREIRA DA SILVA</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>09/05/2017</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="F89" t="n">
-        <v>1</v>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>RJ - Nilópolis</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>03/11/2025 13:30</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>GAEL SANT ANNA CAMPOS DE JESUS</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>18/06/2020</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="F90" t="n">
-        <v>1</v>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>RJ - Nilópolis</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>03/11/2025 13:30</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>LEVI MATUE DA SILVA SANTOS</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>25/07/2021</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="F91" t="n">
-        <v>1</v>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>RJ - Nilópolis</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>16/11/2025 10:00</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>GAEL SANT ANNA CAMPOS DE JESUS</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>18/06/2020</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F92" t="n">
-        <v>1</v>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>R$ 4.630,88</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>R$ 219,12</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>R$ 4.850,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>RJ - Nilópolis</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>16/11/2025 10:00</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>LEVI MATUE DA SILVA SANTOS</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>25/07/2021</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F93" t="n">
-        <v>1</v>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>R$ 4.630,88</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>R$ 219,12</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>R$ 4.850,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>RJ - Queimados</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>22/10/2025 10:00</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>MIRELY VITORIA GOMES MONSORES</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>22/11/2020</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="F94" t="n">
-        <v>1</v>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>RJ - Queimados</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>22/10/2025 10:00</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>MIGUEL ZYAN DOS SANTOS SILVA</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>05/04/2021</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="F95" t="n">
-        <v>1</v>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>RJ - Queimados</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>22/10/2025 10:00</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>LUCAS EDURADO DA COSTA COELHO</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>03/07/2014</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="F96" t="n">
-        <v>1</v>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>RJ - Queimados</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>22/10/2025 10:00</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>THEO LUCAS DOS SANTOS NEPOMUCENO</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>25/01/2021</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="F97" t="n">
-        <v>1</v>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>RJ - Queimados</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>22/10/2025 10:00</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>THEO HENRIQUE GAMA BRANDI</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>05/02/2019</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="F98" t="n">
-        <v>1</v>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>RJ - Queimados</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>22/10/2025 10:00</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>BRYAN LUIS SILVA VITOR</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>08/04/2019</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="F99" t="n">
-        <v>1</v>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>RJ - Queimados</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>01/11/2025 10:00</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>MIRELY VITORIA GOMES MONSORES</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>22/11/2020</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F100" t="n">
-        <v>1</v>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>R$ 4.802,07</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>R$ 434,99</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>R$ 5.237,06</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>RJ - Queimados</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>01/11/2025 10:00</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>MIGUEL ZYAN DOS SANTOS SILVA</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>05/04/2021</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F101" t="n">
-        <v>1</v>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>R$ 5.239,94</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>R$ 610,06</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>R$ 5.850,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>RJ - Queimados</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>22/10/2025 10:00</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>MYGUEL BENICIO DA SILVA</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>17/02/2014</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="F102" t="n">
-        <v>1</v>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>RJ - Queimados</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>01/11/2025 10:00</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>THEO LUCAS DOS SANTOS NEPOMUCENO</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>25/01/2021</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F103" t="n">
-        <v>1</v>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>R$ 4.630,88</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>R$ 219,12</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>R$ 4.850,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>RJ - Queimados</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>01/11/2025 10:00</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>MYGUEL BENICIO DA SILVA</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>17/02/2014</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F104" t="n">
-        <v>1</v>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>R$ 4.630,88</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>R$ 219,12</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>R$ 4.850,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>RJ - Queimados</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>01/11/2025 10:00</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>MIGUEL ZYAN DOS SANTOS SILVA</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>05/04/2021</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F105" t="n">
-        <v>1</v>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>R$ 4.802,07</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>R$ 434,99</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>R$ 5.237,06</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>RJ - Queimados</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>01/11/2025 10:00</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>MIGUEL ZYAN DOS SANTOS SILVA</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>05/04/2021</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="F106" t="n">
-        <v>1</v>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>R$ 4.630,88</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>R$ 219,12</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>R$ 4.850,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>RJ - Belford Roxo</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>14/11/2025 13:00</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>MARIA VITORIA SANTOS DA SILVA</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>23/07/2014</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
-        </is>
-      </c>
-      <c r="F107" t="n">
-        <v>1</v>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>RJ - Belford Roxo</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>14/11/2025 13:00</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>MARIA HELOISA DE LIMA SOUZA</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>10/12/2020</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
-        </is>
-      </c>
-      <c r="F108" t="n">
-        <v>1</v>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>R$ 290,00</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>R$ 10,00</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>R$ 300,00</t>
         </is>
       </c>
     </row>

--- a/relatorios_simplificados/separarNeotin_SIMPLIFICADO.xlsx
+++ b/relatorios_simplificados/separarNeotin_SIMPLIFICADO.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>GABRIEL LUCAS HEGENDORNE ALMEIDA</t>
+          <t>BERNARDO GUILHERME SOUZA DOS SANTOS</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -585,7 +585,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ISABELLA LIMA DOMINGOS DA SILVA</t>
+          <t>NICKOLAS DA SILVA LOURENCO</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BERNARDO GUILHERME SOUZA DOS SANTOS</t>
+          <t>ESTHER LEMOS VIEIRA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>NICKOLAS DA SILVA LOURENCO</t>
+          <t>ISABELLA LIMA DOMINGOS DA SILVA</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -764,7 +764,7 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ESTHER LEMOS VIEIRA</t>
+          <t>GUSTAVO MENDES PEREIRA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -820,7 +820,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>GUSTAVO MENDES PEREIRA</t>
+          <t>ANA SOPHIA GOMES DE SOUZA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -876,7 +876,7 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ANA SOPHIA GOMES DE SOUZA</t>
+          <t>GABRIEL LUCAS HEGENDORNE ALMEIDA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>LUIZ FELIPE ZARANZA DA SILVA</t>
+          <t>GIOVANNA DA COSTA CASTILHO</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -932,7 +932,7 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MIRELLA OLIVEIRA CARDOSO SILVA</t>
+          <t>THAYLLA DA SILVA DOS SANTOS</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -958,7 +958,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>GIOVANNA DA COSTA CASTILHO</t>
+          <t>LUIZ FELIPE ZARANZA DA SILVA</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -988,7 +988,7 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>THAYLLA DA SILVA DOS SANTOS</t>
+          <t>MIRELLA OLIVEIRA CARDOSO SILVA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1014,12 +1014,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>EMANUELLY VITORIA AZEVEDO MARTINS</t>
+          <t>NYCOLAS SANCHES FIALHO</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -1044,7 +1044,7 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>MIRELLA OLIVEIRA CARDOSO SILVA</t>
+          <t>THAYLLA DA SILVA DOS SANTOS</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1070,12 +1070,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>JOSE BENICIO TOLEDO</t>
+          <t>EMANUELLY VITORIA AZEVEDO MARTINS</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -1100,7 +1100,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>THAYLLA DA SILVA DOS SANTOS</t>
+          <t>MIRELLA OLIVEIRA CARDOSO SILVA</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>GIOVANNA DA COSTA CASTILHO</t>
+          <t>JOSE BENICIO TOLEDO</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -1172,12 +1172,12 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>JOSE BENICIO TOLEDO</t>
+          <t>GIOVANNA DA COSTA CASTILHO</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -1216,9 +1216,19 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>JOSE BENICIO TOLEDO</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>POSTECTOMIA - PEDIATRICO</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -1315,7 +1325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1503,12 +1513,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GABRIEL LUCAS HEGENDORNE ALMEIDA</t>
+          <t>BERNARDO GUILHERME SOUZA DOS SANTOS</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>15/02/2016</t>
+          <t>06/09/2019</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1558,12 +1568,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BERNARDO GUILHERME SOUZA DOS SANTOS</t>
+          <t>ESTHER LEMOS VIEIRA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>06/09/2019</t>
+          <t>01/09/2016</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1613,12 +1623,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ESTHER LEMOS VIEIRA</t>
+          <t>GUSTAVO MENDES PEREIRA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>01/09/2016</t>
+          <t>12/06/2016</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1668,12 +1678,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GUSTAVO MENDES PEREIRA</t>
+          <t>ANA SOPHIA GOMES DE SOUZA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12/06/2016</t>
+          <t>04/01/2019</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1723,12 +1733,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ANA SOPHIA GOMES DE SOUZA</t>
+          <t>GABRIEL LUCAS HEGENDORNE ALMEIDA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>04/01/2019</t>
+          <t>15/02/2016</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1778,12 +1788,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MIRELLA OLIVEIRA CARDOSO SILVA</t>
+          <t>THAYLLA DA SILVA DOS SANTOS</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>03/10/2020</t>
+          <t>12/07/2012</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1833,12 +1843,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>THAYLLA DA SILVA DOS SANTOS</t>
+          <t>MIRELLA OLIVEIRA CARDOSO SILVA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12/07/2012</t>
+          <t>03/10/2020</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1888,12 +1898,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>MIRELLA OLIVEIRA CARDOSO SILVA</t>
+          <t>THAYLLA DA SILVA DOS SANTOS</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>03/10/2020</t>
+          <t>12/07/2012</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1943,12 +1953,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>THAYLLA DA SILVA DOS SANTOS</t>
+          <t>MIRELLA OLIVEIRA CARDOSO SILVA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>12/07/2012</t>
+          <t>03/10/2020</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2218,12 +2228,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ISABELLA LIMA DOMINGOS DA SILVA</t>
+          <t>NICKOLAS DA SILVA LOURENCO</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27/11/2015</t>
+          <t>03/05/2014</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2273,12 +2283,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NICKOLAS DA SILVA LOURENCO</t>
+          <t>ISABELLA LIMA DOMINGOS DA SILVA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>03/05/2014</t>
+          <t>27/11/2015</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2933,12 +2943,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>LUIZ FELIPE ZARANZA DA SILVA</t>
+          <t>GIOVANNA DA COSTA CASTILHO</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>23/03/2021</t>
+          <t>04/10/2018</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2988,12 +2998,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>GIOVANNA DA COSTA CASTILHO</t>
+          <t>LUIZ FELIPE ZARANZA DA SILVA</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>04/10/2018</t>
+          <t>23/03/2021</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3038,22 +3048,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>17/01/2026 08:00</t>
+          <t>10/01/2026 08:00</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>EMANUELLY VITORIA AZEVEDO MARTINS</t>
+          <t>NYCOLAS SANCHES FIALHO</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>02/11/2018</t>
+          <t>23/06/2014</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -3061,7 +3071,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>R$ 6.514,54</t>
+          <t>R$ 6.772,46</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -3076,12 +3086,12 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>R$ 1.183,81</t>
+          <t>R$ 385,32</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>R$ 7.698,35</t>
+          <t>R$ 7.157,78</t>
         </is>
       </c>
     </row>
@@ -3098,17 +3108,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>JOSE BENICIO TOLEDO</t>
+          <t>EMANUELLY VITORIA AZEVEDO MARTINS</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>09/07/2024</t>
+          <t>02/11/2018</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -3116,7 +3126,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>R$ 6.772,46</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -3131,12 +3141,12 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>R$ 385,32</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>R$ 7.157,78</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
@@ -3153,17 +3163,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>GIOVANNA DA COSTA CASTILHO</t>
+          <t>JOSE BENICIO TOLEDO</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>04/10/2018</t>
+          <t>09/07/2024</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -3171,7 +3181,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 6.772,46</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -3186,12 +3196,12 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 385,32</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 7.157,78</t>
         </is>
       </c>
     </row>
@@ -3208,17 +3218,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>JOSE BENICIO TOLEDO</t>
+          <t>GIOVANNA DA COSTA CASTILHO</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>09/07/2024</t>
+          <t>04/10/2018</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -3226,7 +3236,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>R$ 4.630,88</t>
+          <t>R$ 4.802,07</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -3241,39 +3251,39 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>R$ 219,12</t>
+          <t>R$ 434,99</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>R$ 4.850,00</t>
+          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>RJ - Nilópolis</t>
+          <t>RJ - Magé</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>05/01/2026 13:00</t>
+          <t>17/01/2026 08:00</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>LORENZO ALVES TAVARES</t>
+          <t>JOSE BENICIO TOLEDO</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>30/05/2022</t>
+          <t>09/07/2024</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+          <t>POSTECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -3281,7 +3291,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 4.630,88</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -3296,12 +3306,12 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 219,12</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 4.850,00</t>
         </is>
       </c>
     </row>
@@ -3313,7 +3323,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>10/01/2026 08:00</t>
+          <t>05/01/2026 13:00</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -3328,7 +3338,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -3336,7 +3346,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>R$ 6.514,54</t>
+          <t>R$ 290,00</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -3351,19 +3361,19 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>R$ 1.183,81</t>
+          <t>R$ 10,00</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>R$ 7.698,35</t>
+          <t>R$ 300,00</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>RJ - Nova Iguaçu</t>
+          <t>RJ - Nilópolis</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3373,17 +3383,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>KEROLLAYNE VITORIA DA COSTA SILVA</t>
+          <t>LORENZO ALVES TAVARES</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>12/12/2014</t>
+          <t>30/05/2022</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -3391,7 +3401,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>R$ 4.802,07</t>
+          <t>R$ 6.514,54</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -3406,19 +3416,19 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>R$ 434,99</t>
+          <t>R$ 1.183,81</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>R$ 5.237,06</t>
+          <t>R$ 7.698,35</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>RJ - Queimados</t>
+          <t>RJ - Nova Iguaçu</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3428,17 +3438,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>PEDRO LUCCA BARBOSA RAMOS</t>
+          <t>KEROLLAYNE VITORIA DA COSTA SILVA</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>04/04/2022</t>
+          <t>12/12/2014</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -3446,7 +3456,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>R$ 5.239,94</t>
+          <t>R$ 4.802,07</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -3461,12 +3471,12 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>R$ 610,06</t>
+          <t>R$ 434,99</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>R$ 5.850,00</t>
+          <t>R$ 5.237,06</t>
         </is>
       </c>
     </row>
@@ -3483,17 +3493,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>PIETRO COELHO DE AZEVEDO</t>
+          <t>PEDRO LUCCA BARBOSA RAMOS</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>14/07/2019</t>
+          <t>04/04/2022</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
+          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -3501,7 +3511,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>R$ 6.772,46</t>
+          <t>R$ 5.239,94</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -3516,39 +3526,39 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>R$ 385,32</t>
+          <t>R$ 610,06</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>R$ 7.157,78</t>
+          <t>R$ 5.850,00</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>RJ - Seropédica</t>
+          <t>RJ - Queimados</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>22/12/2025 15:00</t>
+          <t>10/01/2026 08:00</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CALEBE LEONARDO DA SILVA MACEDO DE SANTANA</t>
+          <t>PIETRO COELHO DE AZEVEDO</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>08/07/2023</t>
+          <t>14/07/2019</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -3556,7 +3566,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>R$ 290,00</t>
+          <t>R$ 6.772,46</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3571,12 +3581,12 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>R$ 10,00</t>
+          <t>R$ 385,32</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>R$ 300,00</t>
+          <t>R$ 7.157,78</t>
         </is>
       </c>
     </row>
@@ -3588,48 +3598,103 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>22/12/2025 15:00</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>CALEBE LEONARDO DA SILVA MACEDO DE SANTANA</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>08/07/2023</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO OTORRINO</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>R$ 290,00</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>R$ 10,00</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>R$ 300,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>RJ - Seropédica</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
           <t>14/01/2026 08:00</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>CALEBE LEONARDO DA SILVA MACEDO DE SANTANA</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>08/07/2023</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
         </is>
       </c>
-      <c r="F42" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" t="inlineStr">
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" t="inlineStr">
         <is>
           <t>R$ 6.514,54</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
         <is>
           <t>R$ 1.183,81</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>R$ 7.698,35</t>
         </is>
